--- a/2008.xlsx
+++ b/2008.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\GitHub\Clemson_Football_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8E19F6-A556-4263-8C60-677635068914}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B27542-7FB7-4235-88E4-685802C8D671}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30" yWindow="90" windowWidth="21450" windowHeight="14670" xr2:uid="{CC753E6D-A7ED-C14A-9FDA-6FF942EF45A5}"/>
+    <workbookView xWindow="1695" yWindow="270" windowWidth="21450" windowHeight="14385" xr2:uid="{CC753E6D-A7ED-C14A-9FDA-6FF942EF45A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Depth" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="405">
   <si>
     <t>Cullen Harper</t>
   </si>
@@ -1221,6 +1221,36 @@
   </si>
   <si>
     <t>Akeem Robinson</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>Unranked</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Away</t>
+  </si>
+  <si>
+    <t>FSU</t>
+  </si>
+  <si>
+    <t>Duke</t>
+  </si>
+  <si>
+    <t>UVA</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
   </si>
 </sst>
 </file>
@@ -1341,7 +1371,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1385,6 +1415,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1706,10 +1739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C53284-FF89-E74F-A4E7-AC50B8F7C354}">
-  <dimension ref="A1:T122"/>
+  <dimension ref="A1:T131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B90"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K131" sqref="K131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -7684,83 +7717,263 @@
         <v>6'1</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="30.95" customHeight="1">
-      <c r="A114" s="22"/>
-    </row>
-    <row r="115" spans="1:10">
-      <c r="A115" t="s">
+    <row r="123" spans="1:10" ht="30.95" customHeight="1">
+      <c r="A123" s="22"/>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" t="s">
         <v>375</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B124" t="s">
         <v>376</v>
       </c>
-      <c r="C115" s="11" t="s">
+      <c r="C124" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="D115" s="11" t="s">
+      <c r="D124" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="E115" s="11" t="s">
+      <c r="E124" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="F115" s="11" t="s">
+      <c r="F124" s="11" t="s">
         <v>381</v>
       </c>
-      <c r="G115" s="11" t="s">
+      <c r="G124" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="H115" s="11" t="s">
+      <c r="H124" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="I115" s="11" t="s">
+      <c r="I124" s="11" t="s">
         <v>386</v>
       </c>
-      <c r="J115" s="11" t="s">
+      <c r="J124" s="11" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
-      <c r="A116">
+    <row r="125" spans="1:10">
+      <c r="A125">
         <v>7</v>
       </c>
-      <c r="E116" t="s">
+      <c r="B125" t="s">
+        <v>395</v>
+      </c>
+      <c r="C125" s="11">
+        <v>17</v>
+      </c>
+      <c r="D125">
+        <v>21</v>
+      </c>
+      <c r="E125" t="s">
+        <v>398</v>
+      </c>
+      <c r="F125" t="s">
+        <v>382</v>
+      </c>
+      <c r="G125">
+        <v>249</v>
+      </c>
+      <c r="H125">
+        <v>298</v>
+      </c>
+      <c r="I125" t="s">
+        <v>396</v>
+      </c>
+      <c r="J125" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126">
+        <v>8</v>
+      </c>
+      <c r="B126" t="s">
+        <v>397</v>
+      </c>
+      <c r="C126" s="11">
+        <v>27</v>
+      </c>
+      <c r="D126">
+        <v>21</v>
+      </c>
+      <c r="E126" t="s">
         <v>380</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F126" t="s">
+        <v>399</v>
+      </c>
+      <c r="G126">
+        <v>339</v>
+      </c>
+      <c r="H126">
+        <v>236</v>
+      </c>
+      <c r="I126" t="s">
+        <v>396</v>
+      </c>
+      <c r="J126" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127">
+        <v>9</v>
+      </c>
+      <c r="B127" t="s">
+        <v>400</v>
+      </c>
+      <c r="C127" s="11">
+        <v>27</v>
+      </c>
+      <c r="D127">
+        <v>41</v>
+      </c>
+      <c r="E127" t="s">
+        <v>398</v>
+      </c>
+      <c r="F127" t="s">
+        <v>399</v>
+      </c>
+      <c r="G127">
+        <v>316</v>
+      </c>
+      <c r="H127">
+        <v>419</v>
+      </c>
+      <c r="I127" t="s">
+        <v>396</v>
+      </c>
+      <c r="J127">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128">
+        <v>10</v>
+      </c>
+      <c r="B128" t="s">
+        <v>401</v>
+      </c>
+      <c r="C128" s="11">
+        <v>31</v>
+      </c>
+      <c r="D128">
+        <v>7</v>
+      </c>
+      <c r="E128" t="s">
+        <v>380</v>
+      </c>
+      <c r="F128" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="117" spans="1:10">
-      <c r="A117">
-        <v>8</v>
-      </c>
-      <c r="F117" t="s">
+      <c r="G128">
+        <v>466</v>
+      </c>
+      <c r="H128">
+        <v>168</v>
+      </c>
+      <c r="I128" t="s">
+        <v>396</v>
+      </c>
+      <c r="J128" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129">
+        <v>11</v>
+      </c>
+      <c r="B129" t="s">
+        <v>402</v>
+      </c>
+      <c r="C129" s="11">
+        <v>13</v>
+      </c>
+      <c r="D129">
+        <v>3</v>
+      </c>
+      <c r="E129" t="s">
+        <v>380</v>
+      </c>
+      <c r="F129" t="s">
+        <v>399</v>
+      </c>
+      <c r="G129">
+        <v>192</v>
+      </c>
+      <c r="H129">
+        <v>190</v>
+      </c>
+      <c r="I129" t="s">
+        <v>396</v>
+      </c>
+      <c r="J129" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130">
+        <v>12</v>
+      </c>
+      <c r="B130" t="s">
+        <v>403</v>
+      </c>
+      <c r="C130" s="11">
+        <v>31</v>
+      </c>
+      <c r="D130">
+        <v>14</v>
+      </c>
+      <c r="E130" t="s">
+        <v>380</v>
+      </c>
+      <c r="F130" t="s">
+        <v>382</v>
+      </c>
+      <c r="G130">
         <v>383</v>
       </c>
-    </row>
-    <row r="118" spans="1:10">
-      <c r="A118">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10">
-      <c r="A119">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10">
-      <c r="A120">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10">
-      <c r="A121">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10">
-      <c r="A122">
+      <c r="H130">
+        <v>304</v>
+      </c>
+      <c r="I130" t="s">
+        <v>396</v>
+      </c>
+      <c r="J130" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="A131">
         <v>13</v>
+      </c>
+      <c r="B131" t="s">
+        <v>404</v>
+      </c>
+      <c r="C131" s="11">
+        <v>21</v>
+      </c>
+      <c r="D131">
+        <v>26</v>
+      </c>
+      <c r="E131" t="s">
+        <v>398</v>
+      </c>
+      <c r="F131" t="s">
+        <v>383</v>
+      </c>
+      <c r="G131">
+        <v>210</v>
+      </c>
+      <c r="H131">
+        <v>361</v>
+      </c>
+      <c r="I131" t="s">
+        <v>396</v>
+      </c>
+      <c r="J131" t="s">
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -7907,77 +8120,77 @@
       <c r="M2" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24" t="s">
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24" t="s">
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="24" t="s">
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="AH2" s="24"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="24"/>
-      <c r="AK2" s="24" t="s">
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="25"/>
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="AL2" s="24"/>
-      <c r="AM2" s="24"/>
-      <c r="AN2" s="24"/>
-      <c r="AP2" s="24"/>
-      <c r="AQ2" s="24"/>
-      <c r="AR2" s="24" t="s">
+      <c r="AL2" s="25"/>
+      <c r="AM2" s="25"/>
+      <c r="AN2" s="25"/>
+      <c r="AP2" s="25"/>
+      <c r="AQ2" s="25"/>
+      <c r="AR2" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="AS2" s="24"/>
-      <c r="AT2" s="24"/>
-      <c r="AU2" s="24"/>
-      <c r="AV2" s="24"/>
-      <c r="AW2" s="24" t="s">
+      <c r="AS2" s="25"/>
+      <c r="AT2" s="25"/>
+      <c r="AU2" s="25"/>
+      <c r="AV2" s="25"/>
+      <c r="AW2" s="25" t="s">
         <v>284</v>
       </c>
-      <c r="AX2" s="24"/>
-      <c r="AY2" s="24"/>
-      <c r="AZ2" s="24"/>
-      <c r="BA2" s="24"/>
-      <c r="BB2" s="24" t="s">
+      <c r="AX2" s="25"/>
+      <c r="AY2" s="25"/>
+      <c r="AZ2" s="25"/>
+      <c r="BA2" s="25"/>
+      <c r="BB2" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="BC2" s="24"/>
-      <c r="BD2" s="24"/>
-      <c r="BE2" s="24"/>
-      <c r="BG2" s="24"/>
-      <c r="BH2" s="24"/>
-      <c r="BI2" s="24" t="s">
+      <c r="BC2" s="25"/>
+      <c r="BD2" s="25"/>
+      <c r="BE2" s="25"/>
+      <c r="BG2" s="25"/>
+      <c r="BH2" s="25"/>
+      <c r="BI2" s="25" t="s">
         <v>313</v>
       </c>
-      <c r="BJ2" s="24"/>
-      <c r="BK2" s="24"/>
-      <c r="BL2" s="24"/>
-      <c r="BM2" s="24"/>
-      <c r="BN2" s="24"/>
-      <c r="BO2" s="24"/>
-      <c r="BP2" s="24" t="s">
+      <c r="BJ2" s="25"/>
+      <c r="BK2" s="25"/>
+      <c r="BL2" s="25"/>
+      <c r="BM2" s="25"/>
+      <c r="BN2" s="25"/>
+      <c r="BO2" s="25"/>
+      <c r="BP2" s="25" t="s">
         <v>314</v>
       </c>
-      <c r="BQ2" s="24"/>
-      <c r="BR2" s="24"/>
+      <c r="BQ2" s="25"/>
+      <c r="BR2" s="25"/>
     </row>
     <row r="3" spans="1:70">
       <c r="A3" s="2" t="s">
@@ -9231,20 +9444,20 @@
       <c r="I12" t="s">
         <v>278</v>
       </c>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="24"/>
-      <c r="X12" s="24"/>
-      <c r="Y12" s="24"/>
-      <c r="Z12" s="24"/>
-      <c r="AA12" s="24"/>
-      <c r="AB12" s="24"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="25"/>
       <c r="AP12" s="12" t="s">
         <v>301</v>
       </c>
@@ -10677,47 +10890,47 @@
         <v>328</v>
       </c>
       <c r="C49" t="e">
-        <f>VLOOKUP(B49,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" ref="C49:C80" si="22">VLOOKUP(B49,$AP$4:$BE$26,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D49" t="e">
-        <f>VLOOKUP(B49,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" ref="D49:D80" si="23">VLOOKUP(B49,$AP$4:$BE$26,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E49" t="e">
-        <f>VLOOKUP(B49,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" ref="E49:E80" si="24">VLOOKUP(B49,$AP$4:$BE$26,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F49" t="e">
-        <f>VLOOKUP(B49,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" ref="F49:F80" si="25">VLOOKUP(B49,$AP$4:$BE$26,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="G49" t="e">
-        <f>VLOOKUP(B49,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" ref="G49:G80" si="26">VLOOKUP(B49,$AP$4:$BE$26,7,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H49" t="e">
-        <f>VLOOKUP(B49,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" ref="H49:H80" si="27">VLOOKUP(B49,$AP$4:$BE$26,8,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I49" t="e">
-        <f>VLOOKUP(B49,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" ref="I49:I80" si="28">VLOOKUP(B49,$AP$4:$BE$26,12,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J49" t="e">
-        <f>VLOOKUP(B49,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" ref="J49:J80" si="29">VLOOKUP(B49,$AP$4:$BE$26,11,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K49" t="e">
-        <f>VLOOKUP(B49,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" ref="K49:K80" si="30">VLOOKUP(B49,$AP$4:$BE$26,13,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L49" t="e">
-        <f>VLOOKUP(B49,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" ref="L49:L80" si="31">VLOOKUP(B49,$AP$4:$BE$26,16,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M49" t="e">
-        <f>VLOOKUP(B49,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" ref="M49:M80" si="32">VLOOKUP(B49,$AP$4:$BE$26,15,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -10729,47 +10942,47 @@
         <v>303</v>
       </c>
       <c r="C50">
-        <f>VLOOKUP(B50,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="D50">
-        <f>VLOOKUP(B50,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="E50">
-        <f>VLOOKUP(B50,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="F50">
-        <f>VLOOKUP(B50,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="G50">
-        <f>VLOOKUP(B50,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H50">
-        <f>VLOOKUP(B50,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="I50">
-        <f>VLOOKUP(B50,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J50">
-        <f>VLOOKUP(B50,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K50">
-        <f>VLOOKUP(B50,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="L50">
-        <f>VLOOKUP(B50,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="M50">
-        <f>VLOOKUP(B50,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
@@ -10781,47 +10994,47 @@
         <v>329</v>
       </c>
       <c r="C51" t="e">
-        <f>VLOOKUP(B51,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="D51" t="e">
-        <f>VLOOKUP(B51,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="E51" t="e">
-        <f>VLOOKUP(B51,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="F51" t="e">
-        <f>VLOOKUP(B51,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G51" t="e">
-        <f>VLOOKUP(B51,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="H51" t="e">
-        <f>VLOOKUP(B51,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="I51" t="e">
-        <f>VLOOKUP(B51,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="J51" t="e">
-        <f>VLOOKUP(B51,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="K51" t="e">
-        <f>VLOOKUP(B51,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
       <c r="L51" t="e">
-        <f>VLOOKUP(B51,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="M51" t="e">
-        <f>VLOOKUP(B51,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -10833,47 +11046,47 @@
         <v>300</v>
       </c>
       <c r="C52">
-        <f>VLOOKUP(B52,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
       <c r="D52">
-        <f>VLOOKUP(B52,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="E52">
-        <f>VLOOKUP(B52,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>4</v>
       </c>
       <c r="F52">
-        <f>VLOOKUP(B52,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="G52">
-        <f>VLOOKUP(B52,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H52">
-        <f>VLOOKUP(B52,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="I52">
-        <f>VLOOKUP(B52,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J52">
-        <f>VLOOKUP(B52,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K52">
-        <f>VLOOKUP(B52,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="L52">
-        <f>VLOOKUP(B52,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="M52">
-        <f>VLOOKUP(B52,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
@@ -10885,47 +11098,47 @@
         <v>330</v>
       </c>
       <c r="C53" t="e">
-        <f>VLOOKUP(B53,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="D53" t="e">
-        <f>VLOOKUP(B53,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="E53" t="e">
-        <f>VLOOKUP(B53,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="F53" t="e">
-        <f>VLOOKUP(B53,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G53" t="e">
-        <f>VLOOKUP(B53,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="H53" t="e">
-        <f>VLOOKUP(B53,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="I53" t="e">
-        <f>VLOOKUP(B53,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="J53" t="e">
-        <f>VLOOKUP(B53,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="K53" t="e">
-        <f>VLOOKUP(B53,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
       <c r="L53" t="e">
-        <f>VLOOKUP(B53,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="M53" t="e">
-        <f>VLOOKUP(B53,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -10937,47 +11150,47 @@
         <v>331</v>
       </c>
       <c r="C54" t="e">
-        <f>VLOOKUP(B54,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="D54" t="e">
-        <f>VLOOKUP(B54,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="E54" t="e">
-        <f>VLOOKUP(B54,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="F54" t="e">
-        <f>VLOOKUP(B54,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G54" t="e">
-        <f>VLOOKUP(B54,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="H54" t="e">
-        <f>VLOOKUP(B54,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="I54" t="e">
-        <f>VLOOKUP(B54,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="J54" t="e">
-        <f>VLOOKUP(B54,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="K54" t="e">
-        <f>VLOOKUP(B54,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
       <c r="L54" t="e">
-        <f>VLOOKUP(B54,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="M54" t="e">
-        <f>VLOOKUP(B54,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -10989,47 +11202,47 @@
         <v>332</v>
       </c>
       <c r="C55" t="e">
-        <f>VLOOKUP(B55,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="D55" t="e">
-        <f>VLOOKUP(B55,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="E55" t="e">
-        <f>VLOOKUP(B55,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="F55" t="e">
-        <f>VLOOKUP(B55,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G55" t="e">
-        <f>VLOOKUP(B55,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="H55" t="e">
-        <f>VLOOKUP(B55,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="I55" t="e">
-        <f>VLOOKUP(B55,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="J55" t="e">
-        <f>VLOOKUP(B55,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="K55" t="e">
-        <f>VLOOKUP(B55,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
       <c r="L55" t="e">
-        <f>VLOOKUP(B55,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="M55" t="e">
-        <f>VLOOKUP(B55,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -11041,47 +11254,47 @@
         <v>333</v>
       </c>
       <c r="C56" t="e">
-        <f>VLOOKUP(B56,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="D56" t="e">
-        <f>VLOOKUP(B56,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="E56" t="e">
-        <f>VLOOKUP(B56,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="F56" t="e">
-        <f>VLOOKUP(B56,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G56" t="e">
-        <f>VLOOKUP(B56,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="H56" t="e">
-        <f>VLOOKUP(B56,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="I56" t="e">
-        <f>VLOOKUP(B56,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="J56" t="e">
-        <f>VLOOKUP(B56,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="K56" t="e">
-        <f>VLOOKUP(B56,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
       <c r="L56" t="e">
-        <f>VLOOKUP(B56,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="M56" t="e">
-        <f>VLOOKUP(B56,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -11093,47 +11306,47 @@
         <v>304</v>
       </c>
       <c r="C57">
-        <f>VLOOKUP(B57,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="D57">
-        <f>VLOOKUP(B57,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="E57">
-        <f>VLOOKUP(B57,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="F57">
-        <f>VLOOKUP(B57,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>0.5</v>
       </c>
       <c r="G57">
-        <f>VLOOKUP(B57,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H57">
-        <f>VLOOKUP(B57,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="I57">
-        <f>VLOOKUP(B57,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J57">
-        <f>VLOOKUP(B57,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K57">
-        <f>VLOOKUP(B57,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="L57">
-        <f>VLOOKUP(B57,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="M57">
-        <f>VLOOKUP(B57,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
@@ -11145,47 +11358,47 @@
         <v>307</v>
       </c>
       <c r="C58">
-        <f>VLOOKUP(B58,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="D58">
-        <f>VLOOKUP(B58,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="E58">
-        <f>VLOOKUP(B58,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F58">
-        <f>VLOOKUP(B58,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="G58">
-        <f>VLOOKUP(B58,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H58">
-        <f>VLOOKUP(B58,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="I58">
-        <f>VLOOKUP(B58,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J58">
-        <f>VLOOKUP(B58,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K58">
-        <f>VLOOKUP(B58,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="L58">
-        <f>VLOOKUP(B58,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="M58">
-        <f>VLOOKUP(B58,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
@@ -11197,47 +11410,47 @@
         <v>334</v>
       </c>
       <c r="C59" t="e">
-        <f>VLOOKUP(B59,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="D59" t="e">
-        <f>VLOOKUP(B59,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="E59" t="e">
-        <f>VLOOKUP(B59,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="F59" t="e">
-        <f>VLOOKUP(B59,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G59" t="e">
-        <f>VLOOKUP(B59,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="H59" t="e">
-        <f>VLOOKUP(B59,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="I59" t="e">
-        <f>VLOOKUP(B59,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="J59" t="e">
-        <f>VLOOKUP(B59,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="K59" t="e">
-        <f>VLOOKUP(B59,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
       <c r="L59" t="e">
-        <f>VLOOKUP(B59,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="M59" t="e">
-        <f>VLOOKUP(B59,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -11249,47 +11462,47 @@
         <v>308</v>
       </c>
       <c r="C60">
-        <f>VLOOKUP(B60,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="D60">
-        <f>VLOOKUP(B60,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="E60">
-        <f>VLOOKUP(B60,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F60">
-        <f>VLOOKUP(B60,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="G60">
-        <f>VLOOKUP(B60,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H60">
-        <f>VLOOKUP(B60,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="I60">
-        <f>VLOOKUP(B60,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J60">
-        <f>VLOOKUP(B60,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K60">
-        <f>VLOOKUP(B60,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="L60">
-        <f>VLOOKUP(B60,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="M60">
-        <f>VLOOKUP(B60,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
@@ -11301,47 +11514,47 @@
         <v>335</v>
       </c>
       <c r="C61" t="e">
-        <f>VLOOKUP(B61,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="D61" t="e">
-        <f>VLOOKUP(B61,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="E61" t="e">
-        <f>VLOOKUP(B61,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="F61" t="e">
-        <f>VLOOKUP(B61,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G61" t="e">
-        <f>VLOOKUP(B61,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="H61" t="e">
-        <f>VLOOKUP(B61,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="I61" t="e">
-        <f>VLOOKUP(B61,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="J61" t="e">
-        <f>VLOOKUP(B61,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="K61" t="e">
-        <f>VLOOKUP(B61,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
       <c r="L61" t="e">
-        <f>VLOOKUP(B61,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="M61" t="e">
-        <f>VLOOKUP(B61,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -11353,47 +11566,47 @@
         <v>336</v>
       </c>
       <c r="C62" t="e">
-        <f>VLOOKUP(B62,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="D62" t="e">
-        <f>VLOOKUP(B62,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="E62" t="e">
-        <f>VLOOKUP(B62,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="F62" t="e">
-        <f>VLOOKUP(B62,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G62" t="e">
-        <f>VLOOKUP(B62,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="H62" t="e">
-        <f>VLOOKUP(B62,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="I62" t="e">
-        <f>VLOOKUP(B62,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="J62" t="e">
-        <f>VLOOKUP(B62,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="K62" t="e">
-        <f>VLOOKUP(B62,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
       <c r="L62" t="e">
-        <f>VLOOKUP(B62,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="M62" t="e">
-        <f>VLOOKUP(B62,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -11405,47 +11618,47 @@
         <v>337</v>
       </c>
       <c r="C63" t="e">
-        <f>VLOOKUP(B63,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="D63" t="e">
-        <f>VLOOKUP(B63,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="E63" t="e">
-        <f>VLOOKUP(B63,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="F63" t="e">
-        <f>VLOOKUP(B63,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G63" t="e">
-        <f>VLOOKUP(B63,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="H63" t="e">
-        <f>VLOOKUP(B63,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="I63" t="e">
-        <f>VLOOKUP(B63,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="J63" t="e">
-        <f>VLOOKUP(B63,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="K63" t="e">
-        <f>VLOOKUP(B63,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
       <c r="L63" t="e">
-        <f>VLOOKUP(B63,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="M63" t="e">
-        <f>VLOOKUP(B63,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -11457,47 +11670,47 @@
         <v>295</v>
       </c>
       <c r="C64">
-        <f>VLOOKUP(B64,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
       <c r="D64">
-        <f>VLOOKUP(B64,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="E64">
-        <f>VLOOKUP(B64,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="F64">
-        <f>VLOOKUP(B64,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="G64">
-        <f>VLOOKUP(B64,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H64">
-        <f>VLOOKUP(B64,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="I64">
-        <f>VLOOKUP(B64,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J64">
-        <f>VLOOKUP(B64,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K64">
-        <f>VLOOKUP(B64,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="L64">
-        <f>VLOOKUP(B64,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="M64">
-        <f>VLOOKUP(B64,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
@@ -11509,47 +11722,47 @@
         <v>293</v>
       </c>
       <c r="C65">
-        <f>VLOOKUP(B65,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
       <c r="D65">
-        <f>VLOOKUP(B65,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>10</v>
       </c>
       <c r="E65">
-        <f>VLOOKUP(B65,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>12</v>
       </c>
       <c r="F65">
-        <f>VLOOKUP(B65,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="G65">
-        <f>VLOOKUP(B65,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H65">
-        <f>VLOOKUP(B65,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="I65">
-        <f>VLOOKUP(B65,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J65">
-        <f>VLOOKUP(B65,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K65">
-        <f>VLOOKUP(B65,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="L65">
-        <f>VLOOKUP(B65,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="M65">
-        <f>VLOOKUP(B65,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
@@ -11561,47 +11774,47 @@
         <v>309</v>
       </c>
       <c r="C66">
-        <f>VLOOKUP(B66,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="D66">
-        <f>VLOOKUP(B66,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="E66">
-        <f>VLOOKUP(B66,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F66">
-        <f>VLOOKUP(B66,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="G66">
-        <f>VLOOKUP(B66,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H66">
-        <f>VLOOKUP(B66,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="I66">
-        <f>VLOOKUP(B66,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J66">
-        <f>VLOOKUP(B66,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K66">
-        <f>VLOOKUP(B66,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="L66">
-        <f>VLOOKUP(B66,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="M66">
-        <f>VLOOKUP(B66,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
@@ -11613,47 +11826,47 @@
         <v>338</v>
       </c>
       <c r="C67" t="e">
-        <f>VLOOKUP(B67,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="D67" t="e">
-        <f>VLOOKUP(B67,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="E67" t="e">
-        <f>VLOOKUP(B67,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="F67" t="e">
-        <f>VLOOKUP(B67,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G67" t="e">
-        <f>VLOOKUP(B67,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="H67" t="e">
-        <f>VLOOKUP(B67,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="I67" t="e">
-        <f>VLOOKUP(B67,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="J67" t="e">
-        <f>VLOOKUP(B67,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="K67" t="e">
-        <f>VLOOKUP(B67,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
       <c r="L67" t="e">
-        <f>VLOOKUP(B67,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="M67" t="e">
-        <f>VLOOKUP(B67,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -11665,47 +11878,47 @@
         <v>310</v>
       </c>
       <c r="C68">
-        <f>VLOOKUP(B68,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="D68">
-        <f>VLOOKUP(B68,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="E68">
-        <f>VLOOKUP(B68,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F68">
-        <f>VLOOKUP(B68,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="G68">
-        <f>VLOOKUP(B68,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H68">
-        <f>VLOOKUP(B68,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="I68">
-        <f>VLOOKUP(B68,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J68">
-        <f>VLOOKUP(B68,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K68">
-        <f>VLOOKUP(B68,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="L68">
-        <f>VLOOKUP(B68,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="M68">
-        <f>VLOOKUP(B68,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
@@ -11717,47 +11930,47 @@
         <v>339</v>
       </c>
       <c r="C69" t="e">
-        <f>VLOOKUP(B69,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="D69" t="e">
-        <f>VLOOKUP(B69,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="E69" t="e">
-        <f>VLOOKUP(B69,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="F69" t="e">
-        <f>VLOOKUP(B69,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G69" t="e">
-        <f>VLOOKUP(B69,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="H69" t="e">
-        <f>VLOOKUP(B69,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="I69" t="e">
-        <f>VLOOKUP(B69,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="J69" t="e">
-        <f>VLOOKUP(B69,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="K69" t="e">
-        <f>VLOOKUP(B69,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
       <c r="L69" t="e">
-        <f>VLOOKUP(B69,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="M69" t="e">
-        <f>VLOOKUP(B69,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -11769,47 +11982,47 @@
         <v>296</v>
       </c>
       <c r="C70">
-        <f>VLOOKUP(B70,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
       <c r="D70">
-        <f>VLOOKUP(B70,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="E70">
-        <f>VLOOKUP(B70,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>7</v>
       </c>
       <c r="F70">
-        <f>VLOOKUP(B70,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="G70">
-        <f>VLOOKUP(B70,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="H70">
-        <f>VLOOKUP(B70,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="I70">
-        <f>VLOOKUP(B70,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J70">
-        <f>VLOOKUP(B70,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K70">
-        <f>VLOOKUP(B70,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="L70">
-        <f>VLOOKUP(B70,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="M70">
-        <f>VLOOKUP(B70,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
@@ -11821,47 +12034,47 @@
         <v>340</v>
       </c>
       <c r="C71" t="e">
-        <f>VLOOKUP(B71,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="D71" t="e">
-        <f>VLOOKUP(B71,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="E71" t="e">
-        <f>VLOOKUP(B71,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="F71" t="e">
-        <f>VLOOKUP(B71,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G71" t="e">
-        <f>VLOOKUP(B71,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="H71" t="e">
-        <f>VLOOKUP(B71,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="I71" t="e">
-        <f>VLOOKUP(B71,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="J71" t="e">
-        <f>VLOOKUP(B71,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="K71" t="e">
-        <f>VLOOKUP(B71,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
       <c r="L71" t="e">
-        <f>VLOOKUP(B71,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="M71" t="e">
-        <f>VLOOKUP(B71,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -11873,47 +12086,47 @@
         <v>297</v>
       </c>
       <c r="C72">
-        <f>VLOOKUP(B72,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
       <c r="D72">
-        <f>VLOOKUP(B72,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="E72">
-        <f>VLOOKUP(B72,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>6</v>
       </c>
       <c r="F72">
-        <f>VLOOKUP(B72,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>0.5</v>
       </c>
       <c r="G72">
-        <f>VLOOKUP(B72,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H72">
-        <f>VLOOKUP(B72,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="I72">
-        <f>VLOOKUP(B72,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J72">
-        <f>VLOOKUP(B72,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K72">
-        <f>VLOOKUP(B72,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="L72">
-        <f>VLOOKUP(B72,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="M72">
-        <f>VLOOKUP(B72,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
@@ -11925,47 +12138,47 @@
         <v>341</v>
       </c>
       <c r="C73" t="e">
-        <f>VLOOKUP(B73,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="D73" t="e">
-        <f>VLOOKUP(B73,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="E73" t="e">
-        <f>VLOOKUP(B73,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="F73" t="e">
-        <f>VLOOKUP(B73,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G73" t="e">
-        <f>VLOOKUP(B73,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="H73" t="e">
-        <f>VLOOKUP(B73,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="I73" t="e">
-        <f>VLOOKUP(B73,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="J73" t="e">
-        <f>VLOOKUP(B73,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="K73" t="e">
-        <f>VLOOKUP(B73,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
       <c r="L73" t="e">
-        <f>VLOOKUP(B73,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="M73" t="e">
-        <f>VLOOKUP(B73,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -11977,47 +12190,47 @@
         <v>342</v>
       </c>
       <c r="C74" t="e">
-        <f>VLOOKUP(B74,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="D74" t="e">
-        <f>VLOOKUP(B74,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="E74" t="e">
-        <f>VLOOKUP(B74,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="F74" t="e">
-        <f>VLOOKUP(B74,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G74" t="e">
-        <f>VLOOKUP(B74,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="H74" t="e">
-        <f>VLOOKUP(B74,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="I74" t="e">
-        <f>VLOOKUP(B74,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="J74" t="e">
-        <f>VLOOKUP(B74,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="K74" t="e">
-        <f>VLOOKUP(B74,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
       <c r="L74" t="e">
-        <f>VLOOKUP(B74,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="M74" t="e">
-        <f>VLOOKUP(B74,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -12029,47 +12242,47 @@
         <v>305</v>
       </c>
       <c r="C75">
-        <f>VLOOKUP(B75,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="D75">
-        <f>VLOOKUP(B75,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="E75">
-        <f>VLOOKUP(B75,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="F75">
-        <f>VLOOKUP(B75,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="G75">
-        <f>VLOOKUP(B75,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H75">
-        <f>VLOOKUP(B75,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="I75">
-        <f>VLOOKUP(B75,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J75">
-        <f>VLOOKUP(B75,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K75">
-        <f>VLOOKUP(B75,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="L75">
-        <f>VLOOKUP(B75,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="M75">
-        <f>VLOOKUP(B75,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
@@ -12081,47 +12294,47 @@
         <v>343</v>
       </c>
       <c r="C76" t="e">
-        <f>VLOOKUP(B76,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="D76" t="e">
-        <f>VLOOKUP(B76,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="E76" t="e">
-        <f>VLOOKUP(B76,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="F76" t="e">
-        <f>VLOOKUP(B76,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G76" t="e">
-        <f>VLOOKUP(B76,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="H76" t="e">
-        <f>VLOOKUP(B76,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="I76" t="e">
-        <f>VLOOKUP(B76,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="J76" t="e">
-        <f>VLOOKUP(B76,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="K76" t="e">
-        <f>VLOOKUP(B76,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
       <c r="L76" t="e">
-        <f>VLOOKUP(B76,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="M76" t="e">
-        <f>VLOOKUP(B76,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -12133,47 +12346,47 @@
         <v>344</v>
       </c>
       <c r="C77" t="e">
-        <f>VLOOKUP(B77,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="D77" t="e">
-        <f>VLOOKUP(B77,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="E77" t="e">
-        <f>VLOOKUP(B77,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="F77" t="e">
-        <f>VLOOKUP(B77,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G77" t="e">
-        <f>VLOOKUP(B77,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="H77" t="e">
-        <f>VLOOKUP(B77,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="I77" t="e">
-        <f>VLOOKUP(B77,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="J77" t="e">
-        <f>VLOOKUP(B77,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="K77" t="e">
-        <f>VLOOKUP(B77,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
       <c r="L77" t="e">
-        <f>VLOOKUP(B77,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="M77" t="e">
-        <f>VLOOKUP(B77,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -12185,47 +12398,47 @@
         <v>345</v>
       </c>
       <c r="C78" t="e">
-        <f>VLOOKUP(B78,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="D78" t="e">
-        <f>VLOOKUP(B78,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="E78" t="e">
-        <f>VLOOKUP(B78,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="F78" t="e">
-        <f>VLOOKUP(B78,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G78" t="e">
-        <f>VLOOKUP(B78,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="H78" t="e">
-        <f>VLOOKUP(B78,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="I78" t="e">
-        <f>VLOOKUP(B78,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="J78" t="e">
-        <f>VLOOKUP(B78,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="K78" t="e">
-        <f>VLOOKUP(B78,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
       <c r="L78" t="e">
-        <f>VLOOKUP(B78,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="M78" t="e">
-        <f>VLOOKUP(B78,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -12237,47 +12450,47 @@
         <v>346</v>
       </c>
       <c r="C79" t="e">
-        <f>VLOOKUP(B79,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="D79" t="e">
-        <f>VLOOKUP(B79,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="E79" t="e">
-        <f>VLOOKUP(B79,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="F79" t="e">
-        <f>VLOOKUP(B79,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G79" t="e">
-        <f>VLOOKUP(B79,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="H79" t="e">
-        <f>VLOOKUP(B79,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="I79" t="e">
-        <f>VLOOKUP(B79,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="J79" t="e">
-        <f>VLOOKUP(B79,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="K79" t="e">
-        <f>VLOOKUP(B79,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
       <c r="L79" t="e">
-        <f>VLOOKUP(B79,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="M79" t="e">
-        <f>VLOOKUP(B79,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -12289,47 +12502,47 @@
         <v>302</v>
       </c>
       <c r="C80">
-        <f>VLOOKUP(B80,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
       <c r="D80">
-        <f>VLOOKUP(B80,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="E80">
-        <f>VLOOKUP(B80,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="F80">
-        <f>VLOOKUP(B80,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="G80">
-        <f>VLOOKUP(B80,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H80">
-        <f>VLOOKUP(B80,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="I80">
-        <f>VLOOKUP(B80,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J80">
-        <f>VLOOKUP(B80,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K80">
-        <f>VLOOKUP(B80,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="L80">
-        <f>VLOOKUP(B80,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="M80">
-        <f>VLOOKUP(B80,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
@@ -12341,47 +12554,47 @@
         <v>301</v>
       </c>
       <c r="C81">
-        <f>VLOOKUP(B81,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" ref="C81:C98" si="33">VLOOKUP(B81,$AP$4:$BE$26,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="D81">
-        <f>VLOOKUP(B81,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" ref="D81:D98" si="34">VLOOKUP(B81,$AP$4:$BE$26,4,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E81">
-        <f>VLOOKUP(B81,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" ref="E81:E98" si="35">VLOOKUP(B81,$AP$4:$BE$26,5,FALSE)</f>
         <v>4</v>
       </c>
       <c r="F81">
-        <f>VLOOKUP(B81,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" ref="F81:F98" si="36">VLOOKUP(B81,$AP$4:$BE$26,6,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G81">
-        <f>VLOOKUP(B81,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" ref="G81:G98" si="37">VLOOKUP(B81,$AP$4:$BE$26,7,FALSE)</f>
         <v>0</v>
       </c>
       <c r="H81">
-        <f>VLOOKUP(B81,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" ref="H81:H98" si="38">VLOOKUP(B81,$AP$4:$BE$26,8,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I81">
-        <f>VLOOKUP(B81,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" ref="I81:I98" si="39">VLOOKUP(B81,$AP$4:$BE$26,12,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J81">
-        <f>VLOOKUP(B81,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" ref="J81:J98" si="40">VLOOKUP(B81,$AP$4:$BE$26,11,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K81">
-        <f>VLOOKUP(B81,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" ref="K81:K98" si="41">VLOOKUP(B81,$AP$4:$BE$26,13,FALSE)</f>
         <v>0</v>
       </c>
       <c r="L81">
-        <f>VLOOKUP(B81,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" ref="L81:L98" si="42">VLOOKUP(B81,$AP$4:$BE$26,16,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M81">
-        <f>VLOOKUP(B81,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" ref="M81:M98" si="43">VLOOKUP(B81,$AP$4:$BE$26,15,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -12393,47 +12606,47 @@
         <v>347</v>
       </c>
       <c r="C82">
-        <f>VLOOKUP(B82,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="33"/>
         <v>6</v>
       </c>
       <c r="D82">
-        <f>VLOOKUP(B82,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="E82">
-        <f>VLOOKUP(B82,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="35"/>
         <v>6</v>
       </c>
       <c r="F82">
-        <f>VLOOKUP(B82,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="G82">
-        <f>VLOOKUP(B82,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="H82">
-        <f>VLOOKUP(B82,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="I82">
-        <f>VLOOKUP(B82,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="J82">
-        <f>VLOOKUP(B82,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="K82">
-        <f>VLOOKUP(B82,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="L82">
-        <f>VLOOKUP(B82,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="M82">
-        <f>VLOOKUP(B82,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -12445,47 +12658,47 @@
         <v>311</v>
       </c>
       <c r="C83">
-        <f>VLOOKUP(B83,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="D83">
-        <f>VLOOKUP(B83,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="E83">
-        <f>VLOOKUP(B83,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="F83">
-        <f>VLOOKUP(B83,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="G83">
-        <f>VLOOKUP(B83,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="H83">
-        <f>VLOOKUP(B83,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="I83">
-        <f>VLOOKUP(B83,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="J83">
-        <f>VLOOKUP(B83,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="K83">
-        <f>VLOOKUP(B83,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="L83">
-        <f>VLOOKUP(B83,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="M83">
-        <f>VLOOKUP(B83,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -12497,47 +12710,47 @@
         <v>348</v>
       </c>
       <c r="C84" t="e">
-        <f>VLOOKUP(B84,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="D84" t="e">
-        <f>VLOOKUP(B84,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="34"/>
         <v>#N/A</v>
       </c>
       <c r="E84" t="e">
-        <f>VLOOKUP(B84,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="F84" t="e">
-        <f>VLOOKUP(B84,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
       <c r="G84" t="e">
-        <f>VLOOKUP(B84,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="H84" t="e">
-        <f>VLOOKUP(B84,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="38"/>
         <v>#N/A</v>
       </c>
       <c r="I84" t="e">
-        <f>VLOOKUP(B84,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="39"/>
         <v>#N/A</v>
       </c>
       <c r="J84" t="e">
-        <f>VLOOKUP(B84,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="40"/>
         <v>#N/A</v>
       </c>
       <c r="K84" t="e">
-        <f>VLOOKUP(B84,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="41"/>
         <v>#N/A</v>
       </c>
       <c r="L84" t="e">
-        <f>VLOOKUP(B84,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="42"/>
         <v>#N/A</v>
       </c>
       <c r="M84" t="e">
-        <f>VLOOKUP(B84,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" si="43"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -12549,47 +12762,47 @@
         <v>349</v>
       </c>
       <c r="C85" t="e">
-        <f>VLOOKUP(B85,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="D85" t="e">
-        <f>VLOOKUP(B85,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="34"/>
         <v>#N/A</v>
       </c>
       <c r="E85" t="e">
-        <f>VLOOKUP(B85,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="F85" t="e">
-        <f>VLOOKUP(B85,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
       <c r="G85" t="e">
-        <f>VLOOKUP(B85,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="H85" t="e">
-        <f>VLOOKUP(B85,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="38"/>
         <v>#N/A</v>
       </c>
       <c r="I85" t="e">
-        <f>VLOOKUP(B85,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="39"/>
         <v>#N/A</v>
       </c>
       <c r="J85" t="e">
-        <f>VLOOKUP(B85,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="40"/>
         <v>#N/A</v>
       </c>
       <c r="K85" t="e">
-        <f>VLOOKUP(B85,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="41"/>
         <v>#N/A</v>
       </c>
       <c r="L85" t="e">
-        <f>VLOOKUP(B85,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="42"/>
         <v>#N/A</v>
       </c>
       <c r="M85" t="e">
-        <f>VLOOKUP(B85,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" si="43"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -12601,47 +12814,47 @@
         <v>350</v>
       </c>
       <c r="C86" t="e">
-        <f>VLOOKUP(B86,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="D86" t="e">
-        <f>VLOOKUP(B86,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="34"/>
         <v>#N/A</v>
       </c>
       <c r="E86" t="e">
-        <f>VLOOKUP(B86,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="F86" t="e">
-        <f>VLOOKUP(B86,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
       <c r="G86" t="e">
-        <f>VLOOKUP(B86,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="H86" t="e">
-        <f>VLOOKUP(B86,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="38"/>
         <v>#N/A</v>
       </c>
       <c r="I86" t="e">
-        <f>VLOOKUP(B86,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="39"/>
         <v>#N/A</v>
       </c>
       <c r="J86" t="e">
-        <f>VLOOKUP(B86,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="40"/>
         <v>#N/A</v>
       </c>
       <c r="K86" t="e">
-        <f>VLOOKUP(B86,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="41"/>
         <v>#N/A</v>
       </c>
       <c r="L86" t="e">
-        <f>VLOOKUP(B86,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="42"/>
         <v>#N/A</v>
       </c>
       <c r="M86" t="e">
-        <f>VLOOKUP(B86,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" si="43"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -12653,47 +12866,47 @@
         <v>351</v>
       </c>
       <c r="C87" t="e">
-        <f>VLOOKUP(B87,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="D87" t="e">
-        <f>VLOOKUP(B87,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="34"/>
         <v>#N/A</v>
       </c>
       <c r="E87" t="e">
-        <f>VLOOKUP(B87,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="F87" t="e">
-        <f>VLOOKUP(B87,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
       <c r="G87" t="e">
-        <f>VLOOKUP(B87,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="H87" t="e">
-        <f>VLOOKUP(B87,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="38"/>
         <v>#N/A</v>
       </c>
       <c r="I87" t="e">
-        <f>VLOOKUP(B87,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="39"/>
         <v>#N/A</v>
       </c>
       <c r="J87" t="e">
-        <f>VLOOKUP(B87,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="40"/>
         <v>#N/A</v>
       </c>
       <c r="K87" t="e">
-        <f>VLOOKUP(B87,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="41"/>
         <v>#N/A</v>
       </c>
       <c r="L87" t="e">
-        <f>VLOOKUP(B87,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="42"/>
         <v>#N/A</v>
       </c>
       <c r="M87" t="e">
-        <f>VLOOKUP(B87,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" si="43"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -12705,47 +12918,47 @@
         <v>352</v>
       </c>
       <c r="C88" t="e">
-        <f>VLOOKUP(B88,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="D88" t="e">
-        <f>VLOOKUP(B88,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="34"/>
         <v>#N/A</v>
       </c>
       <c r="E88" t="e">
-        <f>VLOOKUP(B88,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="F88" t="e">
-        <f>VLOOKUP(B88,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
       <c r="G88" t="e">
-        <f>VLOOKUP(B88,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="H88" t="e">
-        <f>VLOOKUP(B88,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="38"/>
         <v>#N/A</v>
       </c>
       <c r="I88" t="e">
-        <f>VLOOKUP(B88,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="39"/>
         <v>#N/A</v>
       </c>
       <c r="J88" t="e">
-        <f>VLOOKUP(B88,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="40"/>
         <v>#N/A</v>
       </c>
       <c r="K88" t="e">
-        <f>VLOOKUP(B88,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="41"/>
         <v>#N/A</v>
       </c>
       <c r="L88" t="e">
-        <f>VLOOKUP(B88,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="42"/>
         <v>#N/A</v>
       </c>
       <c r="M88" t="e">
-        <f>VLOOKUP(B88,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" si="43"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -12757,47 +12970,47 @@
         <v>353</v>
       </c>
       <c r="C89" t="e">
-        <f>VLOOKUP(B89,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="D89" t="e">
-        <f>VLOOKUP(B89,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="34"/>
         <v>#N/A</v>
       </c>
       <c r="E89" t="e">
-        <f>VLOOKUP(B89,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="F89" t="e">
-        <f>VLOOKUP(B89,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
       <c r="G89" t="e">
-        <f>VLOOKUP(B89,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="H89" t="e">
-        <f>VLOOKUP(B89,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="38"/>
         <v>#N/A</v>
       </c>
       <c r="I89" t="e">
-        <f>VLOOKUP(B89,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="39"/>
         <v>#N/A</v>
       </c>
       <c r="J89" t="e">
-        <f>VLOOKUP(B89,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="40"/>
         <v>#N/A</v>
       </c>
       <c r="K89" t="e">
-        <f>VLOOKUP(B89,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="41"/>
         <v>#N/A</v>
       </c>
       <c r="L89" t="e">
-        <f>VLOOKUP(B89,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="42"/>
         <v>#N/A</v>
       </c>
       <c r="M89" t="e">
-        <f>VLOOKUP(B89,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" si="43"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -12809,47 +13022,47 @@
         <v>354</v>
       </c>
       <c r="C90" t="e">
-        <f>VLOOKUP(B90,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="D90" t="e">
-        <f>VLOOKUP(B90,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="34"/>
         <v>#N/A</v>
       </c>
       <c r="E90" t="e">
-        <f>VLOOKUP(B90,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="F90" t="e">
-        <f>VLOOKUP(B90,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
       <c r="G90" t="e">
-        <f>VLOOKUP(B90,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="H90" t="e">
-        <f>VLOOKUP(B90,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="38"/>
         <v>#N/A</v>
       </c>
       <c r="I90" t="e">
-        <f>VLOOKUP(B90,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="39"/>
         <v>#N/A</v>
       </c>
       <c r="J90" t="e">
-        <f>VLOOKUP(B90,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="40"/>
         <v>#N/A</v>
       </c>
       <c r="K90" t="e">
-        <f>VLOOKUP(B90,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="41"/>
         <v>#N/A</v>
       </c>
       <c r="L90" t="e">
-        <f>VLOOKUP(B90,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="42"/>
         <v>#N/A</v>
       </c>
       <c r="M90" t="e">
-        <f>VLOOKUP(B90,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" si="43"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -12861,47 +13074,47 @@
         <v>299</v>
       </c>
       <c r="C91">
-        <f>VLOOKUP(B91,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="33"/>
         <v>4</v>
       </c>
       <c r="D91">
-        <f>VLOOKUP(B91,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="34"/>
         <v>2</v>
       </c>
       <c r="E91">
-        <f>VLOOKUP(B91,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="35"/>
         <v>6</v>
       </c>
       <c r="F91">
-        <f>VLOOKUP(B91,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="36"/>
         <v>2.5</v>
       </c>
       <c r="G91">
-        <f>VLOOKUP(B91,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="H91">
-        <f>VLOOKUP(B91,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="I91">
-        <f>VLOOKUP(B91,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="J91">
-        <f>VLOOKUP(B91,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="K91">
-        <f>VLOOKUP(B91,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="L91">
-        <f>VLOOKUP(B91,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="M91">
-        <f>VLOOKUP(B91,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -12913,47 +13126,47 @@
         <v>294</v>
       </c>
       <c r="C92">
-        <f>VLOOKUP(B92,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="33"/>
         <v>5</v>
       </c>
       <c r="D92">
-        <f>VLOOKUP(B92,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="E92">
-        <f>VLOOKUP(B92,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="35"/>
         <v>10</v>
       </c>
       <c r="F92">
-        <f>VLOOKUP(B92,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="36"/>
         <v>0.5</v>
       </c>
       <c r="G92">
-        <f>VLOOKUP(B92,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="H92">
-        <f>VLOOKUP(B92,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="I92">
-        <f>VLOOKUP(B92,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="J92">
-        <f>VLOOKUP(B92,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="K92">
-        <f>VLOOKUP(B92,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="L92">
-        <f>VLOOKUP(B92,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="M92">
-        <f>VLOOKUP(B92,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -12965,47 +13178,47 @@
         <v>355</v>
       </c>
       <c r="C93" t="e">
-        <f>VLOOKUP(B93,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="D93" t="e">
-        <f>VLOOKUP(B93,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="34"/>
         <v>#N/A</v>
       </c>
       <c r="E93" t="e">
-        <f>VLOOKUP(B93,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="F93" t="e">
-        <f>VLOOKUP(B93,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
       <c r="G93" t="e">
-        <f>VLOOKUP(B93,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="H93" t="e">
-        <f>VLOOKUP(B93,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="38"/>
         <v>#N/A</v>
       </c>
       <c r="I93" t="e">
-        <f>VLOOKUP(B93,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="39"/>
         <v>#N/A</v>
       </c>
       <c r="J93" t="e">
-        <f>VLOOKUP(B93,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="40"/>
         <v>#N/A</v>
       </c>
       <c r="K93" t="e">
-        <f>VLOOKUP(B93,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="41"/>
         <v>#N/A</v>
       </c>
       <c r="L93" t="e">
-        <f>VLOOKUP(B93,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="42"/>
         <v>#N/A</v>
       </c>
       <c r="M93" t="e">
-        <f>VLOOKUP(B93,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" si="43"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -13017,47 +13230,47 @@
         <v>306</v>
       </c>
       <c r="C94">
-        <f>VLOOKUP(B94,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="D94">
-        <f>VLOOKUP(B94,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="E94">
-        <f>VLOOKUP(B94,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="F94">
-        <f>VLOOKUP(B94,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="G94">
-        <f>VLOOKUP(B94,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="H94">
-        <f>VLOOKUP(B94,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="I94">
-        <f>VLOOKUP(B94,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="J94">
-        <f>VLOOKUP(B94,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="K94">
-        <f>VLOOKUP(B94,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="L94">
-        <f>VLOOKUP(B94,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="M94">
-        <f>VLOOKUP(B94,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -13069,47 +13282,47 @@
         <v>356</v>
       </c>
       <c r="C95" t="e">
-        <f>VLOOKUP(B95,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="D95" t="e">
-        <f>VLOOKUP(B95,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="34"/>
         <v>#N/A</v>
       </c>
       <c r="E95" t="e">
-        <f>VLOOKUP(B95,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="F95" t="e">
-        <f>VLOOKUP(B95,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
       <c r="G95" t="e">
-        <f>VLOOKUP(B95,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="H95" t="e">
-        <f>VLOOKUP(B95,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="38"/>
         <v>#N/A</v>
       </c>
       <c r="I95" t="e">
-        <f>VLOOKUP(B95,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="39"/>
         <v>#N/A</v>
       </c>
       <c r="J95" t="e">
-        <f>VLOOKUP(B95,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="40"/>
         <v>#N/A</v>
       </c>
       <c r="K95" t="e">
-        <f>VLOOKUP(B95,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="41"/>
         <v>#N/A</v>
       </c>
       <c r="L95" t="e">
-        <f>VLOOKUP(B95,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="42"/>
         <v>#N/A</v>
       </c>
       <c r="M95" t="e">
-        <f>VLOOKUP(B95,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" si="43"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -13121,47 +13334,47 @@
         <v>357</v>
       </c>
       <c r="C96" t="e">
-        <f>VLOOKUP(B96,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="D96" t="e">
-        <f>VLOOKUP(B96,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="34"/>
         <v>#N/A</v>
       </c>
       <c r="E96" t="e">
-        <f>VLOOKUP(B96,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="F96" t="e">
-        <f>VLOOKUP(B96,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
       <c r="G96" t="e">
-        <f>VLOOKUP(B96,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="H96" t="e">
-        <f>VLOOKUP(B96,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="38"/>
         <v>#N/A</v>
       </c>
       <c r="I96" t="e">
-        <f>VLOOKUP(B96,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="39"/>
         <v>#N/A</v>
       </c>
       <c r="J96" t="e">
-        <f>VLOOKUP(B96,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="40"/>
         <v>#N/A</v>
       </c>
       <c r="K96" t="e">
-        <f>VLOOKUP(B96,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="41"/>
         <v>#N/A</v>
       </c>
       <c r="L96" t="e">
-        <f>VLOOKUP(B96,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="42"/>
         <v>#N/A</v>
       </c>
       <c r="M96" t="e">
-        <f>VLOOKUP(B96,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" si="43"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -13173,47 +13386,47 @@
         <v>358</v>
       </c>
       <c r="C97" t="e">
-        <f>VLOOKUP(B97,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="D97" t="e">
-        <f>VLOOKUP(B97,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="34"/>
         <v>#N/A</v>
       </c>
       <c r="E97" t="e">
-        <f>VLOOKUP(B97,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="F97" t="e">
-        <f>VLOOKUP(B97,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
       <c r="G97" t="e">
-        <f>VLOOKUP(B97,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="H97" t="e">
-        <f>VLOOKUP(B97,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="38"/>
         <v>#N/A</v>
       </c>
       <c r="I97" t="e">
-        <f>VLOOKUP(B97,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="39"/>
         <v>#N/A</v>
       </c>
       <c r="J97" t="e">
-        <f>VLOOKUP(B97,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="40"/>
         <v>#N/A</v>
       </c>
       <c r="K97" t="e">
-        <f>VLOOKUP(B97,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="41"/>
         <v>#N/A</v>
       </c>
       <c r="L97" t="e">
-        <f>VLOOKUP(B97,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="42"/>
         <v>#N/A</v>
       </c>
       <c r="M97" t="e">
-        <f>VLOOKUP(B97,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" si="43"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -13225,47 +13438,47 @@
         <v>359</v>
       </c>
       <c r="C98" t="e">
-        <f>VLOOKUP(B98,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="D98" t="e">
-        <f>VLOOKUP(B98,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="34"/>
         <v>#N/A</v>
       </c>
       <c r="E98" t="e">
-        <f>VLOOKUP(B98,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="F98" t="e">
-        <f>VLOOKUP(B98,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
       <c r="G98" t="e">
-        <f>VLOOKUP(B98,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="H98" t="e">
-        <f>VLOOKUP(B98,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="38"/>
         <v>#N/A</v>
       </c>
       <c r="I98" t="e">
-        <f>VLOOKUP(B98,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="39"/>
         <v>#N/A</v>
       </c>
       <c r="J98" t="e">
-        <f>VLOOKUP(B98,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="40"/>
         <v>#N/A</v>
       </c>
       <c r="K98" t="e">
-        <f>VLOOKUP(B98,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="41"/>
         <v>#N/A</v>
       </c>
       <c r="L98" t="e">
-        <f>VLOOKUP(B98,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="42"/>
         <v>#N/A</v>
       </c>
       <c r="M98" t="e">
-        <f>VLOOKUP(B98,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" si="43"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -13331,31 +13544,31 @@
         <v>#N/A</v>
       </c>
       <c r="D104" t="e">
-        <f>VLOOKUP(B104,$BG$4:$BR$6,4,FALSE)</f>
+        <f t="shared" ref="D104:D109" si="44">VLOOKUP(B104,$BG$4:$BR$6,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E104" t="e">
-        <f>VLOOKUP(B104,$BG$4:$BR$6,6,FALSE)</f>
+        <f t="shared" ref="E104:E109" si="45">VLOOKUP(B104,$BG$4:$BR$6,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F104" t="e">
-        <f>VLOOKUP(B104,$BG$4:$BR$6,7,FALSE)</f>
+        <f t="shared" ref="F104:F109" si="46">VLOOKUP(B104,$BG$4:$BR$6,7,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="G104" t="e">
-        <f>VLOOKUP(B104,$BG$4:$BR$6,9,FALSE)</f>
+        <f t="shared" ref="G104:G109" si="47">VLOOKUP(B104,$BG$4:$BR$6,9,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H104" t="e">
-        <f>VLOOKUP(B104,$BG$4:$BR$6,10,FALSE)</f>
+        <f t="shared" ref="H104:H109" si="48">VLOOKUP(B104,$BG$4:$BR$6,10,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I104" t="e">
-        <f>VLOOKUP(B104,$BG$4:$BR$6,11,FALSE)</f>
+        <f t="shared" ref="I104:I109" si="49">VLOOKUP(B104,$BG$4:$BR$6,11,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J104" t="e">
-        <f>VLOOKUP(B104,$BG$4:$BR$6,12,FALSE)</f>
+        <f t="shared" ref="J104:J109" si="50">VLOOKUP(B104,$BG$4:$BR$6,12,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -13371,31 +13584,31 @@
         <v>2</v>
       </c>
       <c r="D105">
-        <f>VLOOKUP(B105,$BG$4:$BR$6,4,FALSE)</f>
+        <f t="shared" si="44"/>
         <v>2</v>
       </c>
       <c r="E105">
-        <f>VLOOKUP(B105,$BG$4:$BR$6,6,FALSE)</f>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="F105">
-        <f>VLOOKUP(B105,$BG$4:$BR$6,7,FALSE)</f>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="G105">
-        <f>VLOOKUP(B105,$BG$4:$BR$6,9,FALSE)</f>
+        <f t="shared" si="47"/>
         <v>5</v>
       </c>
       <c r="H105">
-        <f>VLOOKUP(B105,$BG$4:$BR$6,10,FALSE)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I105">
-        <f>VLOOKUP(B105,$BG$4:$BR$6,11,FALSE)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="J105">
-        <f>VLOOKUP(B105,$BG$4:$BR$6,12,FALSE)</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
     </row>
@@ -13411,31 +13624,31 @@
         <v>#N/A</v>
       </c>
       <c r="D106" t="e">
-        <f>VLOOKUP(B106,$BG$4:$BR$6,4,FALSE)</f>
+        <f t="shared" si="44"/>
         <v>#N/A</v>
       </c>
       <c r="E106" t="e">
-        <f>VLOOKUP(B106,$BG$4:$BR$6,6,FALSE)</f>
+        <f t="shared" si="45"/>
         <v>#N/A</v>
       </c>
       <c r="F106" t="e">
-        <f>VLOOKUP(B106,$BG$4:$BR$6,7,FALSE)</f>
+        <f t="shared" si="46"/>
         <v>#N/A</v>
       </c>
       <c r="G106" t="e">
-        <f>VLOOKUP(B106,$BG$4:$BR$6,9,FALSE)</f>
+        <f t="shared" si="47"/>
         <v>#N/A</v>
       </c>
       <c r="H106" t="e">
-        <f>VLOOKUP(B106,$BG$4:$BR$6,10,FALSE)</f>
+        <f t="shared" si="48"/>
         <v>#N/A</v>
       </c>
       <c r="I106" t="e">
-        <f>VLOOKUP(B106,$BG$4:$BR$6,11,FALSE)</f>
+        <f t="shared" si="49"/>
         <v>#N/A</v>
       </c>
       <c r="J106" t="e">
-        <f>VLOOKUP(B106,$BG$4:$BR$6,12,FALSE)</f>
+        <f t="shared" si="50"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -13451,31 +13664,31 @@
         <v>#N/A</v>
       </c>
       <c r="D107" t="e">
-        <f>VLOOKUP(B107,$BG$4:$BR$6,4,FALSE)</f>
+        <f t="shared" si="44"/>
         <v>#N/A</v>
       </c>
       <c r="E107" t="e">
-        <f>VLOOKUP(B107,$BG$4:$BR$6,6,FALSE)</f>
+        <f t="shared" si="45"/>
         <v>#N/A</v>
       </c>
       <c r="F107" t="e">
-        <f>VLOOKUP(B107,$BG$4:$BR$6,7,FALSE)</f>
+        <f t="shared" si="46"/>
         <v>#N/A</v>
       </c>
       <c r="G107" t="e">
-        <f>VLOOKUP(B107,$BG$4:$BR$6,9,FALSE)</f>
+        <f t="shared" si="47"/>
         <v>#N/A</v>
       </c>
       <c r="H107" t="e">
-        <f>VLOOKUP(B107,$BG$4:$BR$6,10,FALSE)</f>
+        <f t="shared" si="48"/>
         <v>#N/A</v>
       </c>
       <c r="I107" t="e">
-        <f>VLOOKUP(B107,$BG$4:$BR$6,11,FALSE)</f>
+        <f t="shared" si="49"/>
         <v>#N/A</v>
       </c>
       <c r="J107" t="e">
-        <f>VLOOKUP(B107,$BG$4:$BR$6,12,FALSE)</f>
+        <f t="shared" si="50"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -13491,31 +13704,31 @@
         <v>0</v>
       </c>
       <c r="D108">
-        <f>VLOOKUP(B108,$BG$4:$BR$6,4,FALSE)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="E108">
-        <f>VLOOKUP(B108,$BG$4:$BR$6,6,FALSE)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="F108">
-        <f>VLOOKUP(B108,$BG$4:$BR$6,7,FALSE)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="G108">
-        <f>VLOOKUP(B108,$BG$4:$BR$6,9,FALSE)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="H108">
-        <f>VLOOKUP(B108,$BG$4:$BR$6,10,FALSE)</f>
+        <f t="shared" si="48"/>
         <v>3</v>
       </c>
       <c r="I108">
-        <f>VLOOKUP(B108,$BG$4:$BR$6,11,FALSE)</f>
+        <f t="shared" si="49"/>
         <v>114</v>
       </c>
       <c r="J108">
-        <f>VLOOKUP(B108,$BG$4:$BR$6,12,FALSE)</f>
+        <f t="shared" si="50"/>
         <v>38</v>
       </c>
     </row>
@@ -13531,31 +13744,31 @@
         <v>0</v>
       </c>
       <c r="D109">
-        <f>VLOOKUP(B109,$BG$4:$BR$6,4,FALSE)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="E109">
-        <f>VLOOKUP(B109,$BG$4:$BR$6,6,FALSE)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="F109">
-        <f>VLOOKUP(B109,$BG$4:$BR$6,7,FALSE)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="G109">
-        <f>VLOOKUP(B109,$BG$4:$BR$6,9,FALSE)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="H109">
-        <f>VLOOKUP(B109,$BG$4:$BR$6,10,FALSE)</f>
+        <f t="shared" si="48"/>
         <v>3</v>
       </c>
       <c r="I109">
-        <f>VLOOKUP(B109,$BG$4:$BR$6,11,FALSE)</f>
+        <f t="shared" si="49"/>
         <v>110</v>
       </c>
       <c r="J109">
-        <f>VLOOKUP(B109,$BG$4:$BR$6,12,FALSE)</f>
+        <f t="shared" si="50"/>
         <v>36.700000000000003</v>
       </c>
     </row>
@@ -13617,23 +13830,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="BI2:BO2"/>
+    <mergeCell ref="BP2:BR2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AR2:AV2"/>
+    <mergeCell ref="AW2:BA2"/>
+    <mergeCell ref="BB2:BE2"/>
+    <mergeCell ref="BG2:BH2"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AJ2"/>
     <mergeCell ref="AK2:AN2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="Q2:Y2"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="Y12:AB12"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AR2:AV2"/>
-    <mergeCell ref="AW2:BA2"/>
-    <mergeCell ref="BB2:BE2"/>
-    <mergeCell ref="BG2:BH2"/>
-    <mergeCell ref="BI2:BO2"/>
-    <mergeCell ref="BP2:BR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13641,10 +13854,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD7E73B-F300-457F-AAC9-C78C16550306}">
-  <dimension ref="A1:BR123"/>
+  <dimension ref="A1:BR132"/>
   <sheetViews>
-    <sheetView topLeftCell="AY1" workbookViewId="0">
-      <selection activeCell="BI4" sqref="BI4"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -13711,59 +13924,59 @@
       <c r="M2" s="23" t="s">
         <v>281</v>
       </c>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="24"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="24"/>
-      <c r="AK2" s="24"/>
-      <c r="AL2" s="24"/>
-      <c r="AM2" s="24"/>
-      <c r="AN2" s="24"/>
-      <c r="AP2" s="24"/>
-      <c r="AQ2" s="24"/>
-      <c r="AR2" s="24"/>
-      <c r="AS2" s="24"/>
-      <c r="AT2" s="24"/>
-      <c r="AU2" s="24"/>
-      <c r="AV2" s="24"/>
-      <c r="AW2" s="24"/>
-      <c r="AX2" s="24"/>
-      <c r="AY2" s="24"/>
-      <c r="AZ2" s="24"/>
-      <c r="BA2" s="24"/>
-      <c r="BB2" s="24"/>
-      <c r="BC2" s="24"/>
-      <c r="BD2" s="24"/>
-      <c r="BE2" s="24"/>
-      <c r="BG2" s="24"/>
-      <c r="BH2" s="24"/>
-      <c r="BI2" s="24"/>
-      <c r="BJ2" s="24"/>
-      <c r="BK2" s="24"/>
-      <c r="BL2" s="24"/>
-      <c r="BM2" s="24"/>
-      <c r="BN2" s="24"/>
-      <c r="BO2" s="24"/>
-      <c r="BP2" s="24"/>
-      <c r="BQ2" s="24"/>
-      <c r="BR2" s="24"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="25"/>
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="25"/>
+      <c r="AL2" s="25"/>
+      <c r="AM2" s="25"/>
+      <c r="AN2" s="25"/>
+      <c r="AP2" s="25"/>
+      <c r="AQ2" s="25"/>
+      <c r="AR2" s="25"/>
+      <c r="AS2" s="25"/>
+      <c r="AT2" s="25"/>
+      <c r="AU2" s="25"/>
+      <c r="AV2" s="25"/>
+      <c r="AW2" s="25"/>
+      <c r="AX2" s="25"/>
+      <c r="AY2" s="25"/>
+      <c r="AZ2" s="25"/>
+      <c r="BA2" s="25"/>
+      <c r="BB2" s="25"/>
+      <c r="BC2" s="25"/>
+      <c r="BD2" s="25"/>
+      <c r="BE2" s="25"/>
+      <c r="BG2" s="25"/>
+      <c r="BH2" s="25"/>
+      <c r="BI2" s="25"/>
+      <c r="BJ2" s="25"/>
+      <c r="BK2" s="25"/>
+      <c r="BL2" s="25"/>
+      <c r="BM2" s="25"/>
+      <c r="BN2" s="25"/>
+      <c r="BO2" s="25"/>
+      <c r="BP2" s="25"/>
+      <c r="BQ2" s="25"/>
+      <c r="BR2" s="25"/>
     </row>
     <row r="3" spans="1:70">
       <c r="A3" s="2" t="s">
@@ -13773,47 +13986,47 @@
         <v>0</v>
       </c>
       <c r="C3" s="2" t="e">
-        <f>VLOOKUP(B3,$O$4:$Y$12,3,FALSE)</f>
+        <f t="shared" ref="C3:C8" si="0">VLOOKUP(B3,$O$4:$Y$11,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D3" s="2" t="e">
-        <f>VLOOKUP(B3,$O$4:$Y$12,4,FALSE)</f>
+        <f t="shared" ref="D3:D8" si="1">VLOOKUP(B3,$O$4:$Y$11,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E3" s="2" t="e">
-        <f>VLOOKUP(B3,$O$4:$Y$12,5,FALSE)</f>
+        <f t="shared" ref="E3:E8" si="2">VLOOKUP(B3,$O$4:$Y$11,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F3" s="2" t="e">
-        <f>VLOOKUP(B3,$O$4:$Y$12,6,FALSE)</f>
+        <f t="shared" ref="F3:F8" si="3">VLOOKUP(B3,$O$4:$Y$11,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="G3" s="2" t="e">
-        <f>VLOOKUP(B3,$O$4:$Y$12,7,FALSE)</f>
+        <f t="shared" ref="G3:G8" si="4">VLOOKUP(B3,$O$4:$Y$11,7,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H3" s="2" t="e">
-        <f>VLOOKUP(B3,$O$4:$Y$12,9,FALSE)</f>
+        <f t="shared" ref="H3:H8" si="5">VLOOKUP(B3,$O$4:$Y$11,9,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I3" s="2" t="e">
-        <f>VLOOKUP(B3,$O$4:$Y$12,10,FALSE)</f>
+        <f t="shared" ref="I3:I8" si="6">VLOOKUP(B3,$O$4:$Y$11,10,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J3" s="2" t="e">
-        <f>VLOOKUP(B3,$O$4:$Y$12,11,FALSE)</f>
+        <f t="shared" ref="J3:J8" si="7">VLOOKUP(B3,$O$4:$Y$11,11,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K3" s="2" t="e">
-        <f>VLOOKUP(B3,$O$14:$X$36,3,FALSE)</f>
+        <f t="shared" ref="K3:K8" si="8">VLOOKUP(B3,$O$13:$X$36,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L3" s="2" t="e">
-        <f>VLOOKUP(B3,$O$14:$X$36,4,FALSE)</f>
+        <f t="shared" ref="L3:L8" si="9">VLOOKUP(B3,$O$13:$X$36,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M3" s="2" t="e">
-        <f>VLOOKUP(B3,$O$14:$X$36,6,FALSE)</f>
+        <f t="shared" ref="M3:M8" si="10">VLOOKUP(B3,$O$13:$X$36,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="O3" s="23"/>
@@ -13878,47 +14091,47 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="e">
-        <f t="shared" ref="C4:C8" si="0">VLOOKUP(B4,$O$4:$Y$12,3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D4" s="2" t="e">
-        <f t="shared" ref="D4:D8" si="1">VLOOKUP(B4,$O$4:$Y$12,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E4" s="2" t="e">
-        <f t="shared" ref="E4:E8" si="2">VLOOKUP(B4,$O$4:$Y$12,5,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="F4" s="2" t="e">
-        <f t="shared" ref="F4:F8" si="3">VLOOKUP(B4,$O$4:$Y$12,6,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="G4" s="2" t="e">
-        <f t="shared" ref="G4:G8" si="4">VLOOKUP(B4,$O$4:$Y$12,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="H4" s="2" t="e">
-        <f t="shared" ref="H4:H8" si="5">VLOOKUP(B4,$O$4:$Y$12,9,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="I4" s="2" t="e">
-        <f t="shared" ref="I4:I8" si="6">VLOOKUP(B4,$O$4:$Y$12,10,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J4" s="2" t="e">
-        <f t="shared" ref="J4:J8" si="7">VLOOKUP(B4,$O$4:$Y$12,11,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="K4" s="2" t="e">
-        <f t="shared" ref="K4:K8" si="8">VLOOKUP(B4,$O$14:$X$36,3,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="L4" s="2" t="e">
-        <f t="shared" ref="L4:L8" si="9">VLOOKUP(B4,$O$14:$X$36,4,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="M4" s="2" t="e">
-        <f t="shared" ref="M4:M8" si="10">VLOOKUP(B4,$O$14:$X$36,6,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="O4" s="23"/>
@@ -14392,9 +14605,12 @@
       <c r="BD9" s="14"/>
       <c r="BE9" s="14"/>
     </row>
-    <row r="10" spans="1:70">
-      <c r="A10" s="2"/>
+    <row r="10" spans="1:70" ht="31.5">
+      <c r="A10" s="21" t="s">
+        <v>250</v>
+      </c>
       <c r="B10" s="23"/>
+      <c r="O10" s="16"/>
       <c r="P10" s="23"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
@@ -14435,35 +14651,48 @@
       <c r="BD10" s="14"/>
       <c r="BE10" s="14"/>
     </row>
-    <row r="11" spans="1:70" ht="31.5">
-      <c r="A11" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="B11" s="23"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="AA11" s="23"/>
-      <c r="AB11" s="2"/>
-      <c r="AC11" s="14"/>
-      <c r="AD11" s="14"/>
-      <c r="AE11" s="14"/>
-      <c r="AF11" s="14"/>
-      <c r="AG11" s="2"/>
-      <c r="AH11" s="2"/>
-      <c r="AI11" s="2"/>
-      <c r="AJ11" s="2"/>
-      <c r="AK11" s="2"/>
-      <c r="AL11" s="2"/>
-      <c r="AM11" s="2"/>
-      <c r="AN11" s="2"/>
+    <row r="11" spans="1:70">
+      <c r="A11" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>266</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>260</v>
+      </c>
+      <c r="F11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" t="s">
+        <v>277</v>
+      </c>
+      <c r="H11" t="s">
+        <v>279</v>
+      </c>
+      <c r="I11" t="s">
+        <v>278</v>
+      </c>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="25"/>
       <c r="AP11" s="23"/>
       <c r="AQ11" s="2"/>
       <c r="AR11" s="2"/>
@@ -14482,47 +14711,54 @@
       <c r="BE11" s="14"/>
     </row>
     <row r="12" spans="1:70">
-      <c r="A12" s="13" t="s">
-        <v>4</v>
+      <c r="A12" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>266</v>
-      </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>260</v>
-      </c>
-      <c r="F12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" t="s">
-        <v>277</v>
-      </c>
-      <c r="H12" t="s">
-        <v>279</v>
-      </c>
-      <c r="I12" t="s">
-        <v>278</v>
-      </c>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="24"/>
-      <c r="X12" s="24"/>
-      <c r="Y12" s="24"/>
-      <c r="Z12" s="24"/>
-      <c r="AA12" s="24"/>
-      <c r="AB12" s="24"/>
+        <v>251</v>
+      </c>
+      <c r="C12" t="e">
+        <f t="shared" ref="C12:C18" si="11">VLOOKUP(B12,$AA$4:$AN$36,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D12" t="e">
+        <f t="shared" ref="D12:D18" si="12">VLOOKUP(B12,$AA$4:$AN$36,4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E12" t="e">
+        <f t="shared" ref="E12:E18" si="13">VLOOKUP(B12,$AA$4:$AN$36,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F12" t="e">
+        <f t="shared" ref="F12:F18" si="14">VLOOKUP(B12,$AA$4:$AN$36,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G12" t="e">
+        <f t="shared" ref="G12:G18" si="15">VLOOKUP(B12,$AA$4:$AN$36,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H12" t="e">
+        <f t="shared" ref="H12:H18" si="16">VLOOKUP(B12,$AA$4:$AN$36,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I12" t="e">
+        <f t="shared" ref="I12:I18" si="17">VLOOKUP(B12,$AA$4:$AN$36,10,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="23"/>
+      <c r="AA12" s="23"/>
+      <c r="AB12" s="23"/>
       <c r="AP12" s="23"/>
       <c r="AQ12" s="2"/>
       <c r="AR12" s="2"/>
@@ -14540,55 +14776,55 @@
       <c r="BD12" s="14"/>
       <c r="BE12" s="14"/>
     </row>
-    <row r="13" spans="1:70">
+    <row r="13" spans="1:70" ht="25.5">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C13" t="e">
-        <f>VLOOKUP(B13,$AA$4:$AN$36,3,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="D13" t="e">
-        <f>VLOOKUP(B13,$AA$4:$AN$36,4,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="E13" t="e">
-        <f>VLOOKUP(B13,$AA$4:$AN$36,5,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F13" t="e">
-        <f>VLOOKUP(B13,$AA$4:$AN$36,6,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G13" t="e">
-        <f>VLOOKUP(B13,$AA$4:$AN$36,7,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="H13" t="e">
-        <f>VLOOKUP(B13,$AA$4:$AN$36,8,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="I13" t="e">
-        <f>VLOOKUP(B13,$AA$4:$AN$36,10,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="23"/>
-      <c r="W13" s="23"/>
-      <c r="X13" s="23"/>
-      <c r="Y13" s="23"/>
-      <c r="Z13" s="23"/>
-      <c r="AA13" s="23"/>
-      <c r="AB13" s="23"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
       <c r="AP13" s="23"/>
       <c r="AQ13" s="2"/>
       <c r="AR13" s="2"/>
@@ -14606,39 +14842,39 @@
       <c r="BD13" s="14"/>
       <c r="BE13" s="14"/>
     </row>
-    <row r="14" spans="1:70" ht="25.5">
+    <row r="14" spans="1:70">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C14" t="e">
-        <f t="shared" ref="C14:C19" si="11">VLOOKUP(B14,$AA$4:$AN$36,3,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="D14" t="e">
-        <f t="shared" ref="D14:D19" si="12">VLOOKUP(B14,$AA$4:$AN$36,4,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="E14" t="e">
-        <f t="shared" ref="E14:E19" si="13">VLOOKUP(B14,$AA$4:$AN$36,5,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F14" t="e">
-        <f t="shared" ref="F14:F19" si="14">VLOOKUP(B14,$AA$4:$AN$36,6,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G14" t="e">
-        <f t="shared" ref="G14:G19" si="15">VLOOKUP(B14,$AA$4:$AN$36,7,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="H14" t="e">
-        <f t="shared" ref="H14:H19" si="16">VLOOKUP(B14,$AA$4:$AN$36,8,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="I14" t="e">
-        <f t="shared" ref="I14:I19" si="17">VLOOKUP(B14,$AA$4:$AN$36,10,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="O14" s="23"/>
@@ -14677,7 +14913,7 @@
         <v>25</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C15" t="e">
         <f t="shared" si="11"/>
@@ -14713,10 +14949,10 @@
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
@@ -14743,7 +14979,7 @@
         <v>25</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C16" t="e">
         <f t="shared" si="11"/>
@@ -14779,10 +15015,10 @@
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="14"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
@@ -14804,12 +15040,12 @@
       <c r="BD16" s="14"/>
       <c r="BE16" s="14"/>
     </row>
-    <row r="17" spans="1:57">
+    <row r="17" spans="1:57" ht="25.5">
       <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C17" t="e">
         <f t="shared" si="11"/>
@@ -14845,10 +15081,10 @@
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
@@ -14875,7 +15111,7 @@
         <v>25</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C18" t="e">
         <f t="shared" si="11"/>
@@ -14907,14 +15143,14 @@
       </c>
       <c r="O18" s="23"/>
       <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
@@ -14934,43 +15170,11 @@
       <c r="BB18" s="14"/>
       <c r="BC18" s="14"/>
       <c r="BD18" s="14"/>
-      <c r="BE18" s="14"/>
-    </row>
-    <row r="19" spans="1:57" ht="25.5">
-      <c r="A19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="C19" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D19" t="e">
-        <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E19" t="e">
-        <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F19" t="e">
-        <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G19" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H19" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I19" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
+      <c r="BE18" s="2"/>
+    </row>
+    <row r="19" spans="1:57">
+      <c r="A19" s="2"/>
+      <c r="B19" s="23"/>
       <c r="O19" s="23"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="14"/>
@@ -15000,7 +15204,7 @@
       <c r="BB19" s="14"/>
       <c r="BC19" s="14"/>
       <c r="BD19" s="14"/>
-      <c r="BE19" s="2"/>
+      <c r="BE19" s="14"/>
     </row>
     <row r="20" spans="1:57">
       <c r="A20" s="2"/>
@@ -15038,8 +15242,8 @@
     </row>
     <row r="21" spans="1:57">
       <c r="A21" s="2"/>
-      <c r="B21" s="23"/>
-      <c r="O21" s="23"/>
+      <c r="B21" s="24"/>
+      <c r="O21" s="24"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="14"/>
       <c r="R21" s="14"/>
@@ -15053,7 +15257,7 @@
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
-      <c r="AP21" s="23"/>
+      <c r="AP21" s="24"/>
       <c r="AQ21" s="2"/>
       <c r="AR21" s="2"/>
       <c r="AS21" s="2"/>
@@ -15136,19 +15340,19 @@
         <v>267</v>
       </c>
       <c r="C24" t="e">
-        <f>VLOOKUP(B24,$AA$4:$AN$36,7,FALSE)</f>
+        <f t="shared" ref="C24:C44" si="18">VLOOKUP(B24,$AA$4:$AN$36,7,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D24" t="e">
-        <f>VLOOKUP(B24,$AA$4:$AN$36,8,FALSE)</f>
+        <f t="shared" ref="D24:D44" si="19">VLOOKUP(B24,$AA$4:$AN$36,8,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E24" t="e">
-        <f>VLOOKUP(B24,$AA$4:$AN$36,9,FALSE)</f>
+        <f t="shared" ref="E24:E44" si="20">VLOOKUP(B24,$AA$4:$AN$36,9,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F24" t="e">
-        <f>VLOOKUP(B24,$AA$4:$AN$36,10,FALSE)</f>
+        <f t="shared" ref="F24:F44" si="21">VLOOKUP(B24,$AA$4:$AN$36,10,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="AP24" s="23"/>
@@ -15176,19 +15380,19 @@
         <v>268</v>
       </c>
       <c r="C25" t="e">
-        <f t="shared" ref="C25:C44" si="18">VLOOKUP(B25,$AA$4:$AN$36,7,FALSE)</f>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="D25" t="e">
-        <f t="shared" ref="D25:D44" si="19">VLOOKUP(B25,$AA$4:$AN$36,8,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="E25" t="e">
-        <f t="shared" ref="E25:E44" si="20">VLOOKUP(B25,$AA$4:$AN$36,9,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="F25" t="e">
-        <f t="shared" ref="F25:F44" si="21">VLOOKUP(B25,$AA$4:$AN$36,10,FALSE)</f>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="AP25" s="23"/>
@@ -15392,7 +15596,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:6">
       <c r="A33" s="2" t="s">
         <v>27</v>
       </c>
@@ -15416,7 +15620,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:6">
       <c r="A34" s="2" t="s">
         <v>27</v>
       </c>
@@ -15440,7 +15644,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="25.5">
+    <row r="35" spans="1:6" ht="25.5">
       <c r="A35" s="2" t="s">
         <v>27</v>
       </c>
@@ -15464,7 +15668,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:6">
       <c r="A36" s="2" t="s">
         <v>27</v>
       </c>
@@ -15488,7 +15692,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:6">
       <c r="A37" s="2" t="s">
         <v>29</v>
       </c>
@@ -15512,7 +15716,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:6">
       <c r="A38" s="2" t="s">
         <v>29</v>
       </c>
@@ -15536,7 +15740,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:6">
       <c r="A39" s="2" t="s">
         <v>29</v>
       </c>
@@ -15560,7 +15764,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="25.5">
+    <row r="40" spans="1:6" ht="25.5">
       <c r="A40" s="2" t="s">
         <v>29</v>
       </c>
@@ -15584,7 +15788,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:6">
       <c r="A41" s="2" t="s">
         <v>29</v>
       </c>
@@ -15608,7 +15812,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="25.5">
+    <row r="42" spans="1:6" ht="25.5">
       <c r="A42" s="2" t="s">
         <v>29</v>
       </c>
@@ -15632,7 +15836,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:6">
       <c r="A43" s="2" t="s">
         <v>29</v>
       </c>
@@ -15656,7 +15860,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="25.5">
+    <row r="44" spans="1:6" ht="25.5">
       <c r="A44" s="2" t="s">
         <v>29</v>
       </c>
@@ -15680,422 +15884,230 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:6">
       <c r="A45" s="2"/>
       <c r="B45" s="23"/>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:6">
       <c r="A46" s="2"/>
-      <c r="B46" s="23"/>
-    </row>
-    <row r="47" spans="1:13" ht="23.25">
-      <c r="A47" s="19" t="s">
+      <c r="B46" s="24"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="2"/>
+      <c r="B47" s="24"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="2"/>
+      <c r="B48" s="24"/>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="2"/>
+      <c r="B49" s="24"/>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="2"/>
+      <c r="B50" s="23"/>
+    </row>
+    <row r="51" spans="1:13" ht="23.25">
+      <c r="A51" s="19" t="s">
         <v>327</v>
       </c>
-      <c r="B47" s="23"/>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="A48" s="2" t="s">
+      <c r="B51" s="23"/>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="23" t="s">
+      <c r="B52" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C52" t="s">
         <v>286</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D52" t="s">
         <v>287</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E52" t="s">
         <v>288</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F52" t="s">
         <v>363</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G52" t="s">
         <v>364</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H52" t="s">
         <v>14</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I52" t="s">
         <v>366</v>
       </c>
-      <c r="J48" t="s">
+      <c r="J52" t="s">
         <v>367</v>
       </c>
-      <c r="K48" t="s">
+      <c r="K52" t="s">
         <v>24</v>
       </c>
-      <c r="L48" t="s">
+      <c r="L52" t="s">
         <v>292</v>
       </c>
-      <c r="M48" t="s">
+      <c r="M52" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="25.5">
-      <c r="A49" s="2" t="s">
+    <row r="53" spans="1:13" ht="25.5">
+      <c r="A53" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B49" s="23" t="s">
+      <c r="B53" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="C49" t="e">
-        <f>VLOOKUP(B49,$AP$4:$BE$26,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D49" t="e">
-        <f>VLOOKUP(B49,$AP$4:$BE$26,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E49" t="e">
-        <f>VLOOKUP(B49,$AP$4:$BE$26,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F49" t="e">
-        <f>VLOOKUP(B49,$AP$4:$BE$26,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G49" t="e">
-        <f>VLOOKUP(B49,$AP$4:$BE$26,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H49" t="e">
-        <f>VLOOKUP(B49,$AP$4:$BE$26,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I49" t="e">
-        <f>VLOOKUP(B49,$AP$4:$BE$26,12,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J49" t="e">
-        <f>VLOOKUP(B49,$AP$4:$BE$26,11,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K49" t="e">
-        <f>VLOOKUP(B49,$AP$4:$BE$26,13,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L49" t="e">
-        <f>VLOOKUP(B49,$AP$4:$BE$26,16,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M49" t="e">
-        <f>VLOOKUP(B49,$AP$4:$BE$26,15,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="25.5">
-      <c r="A50" s="2" t="s">
+      <c r="C53" t="e">
+        <f t="shared" ref="C53:C84" si="22">VLOOKUP(B53,$AP$4:$BE$26,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D53" t="e">
+        <f t="shared" ref="D53:D84" si="23">VLOOKUP(B53,$AP$4:$BE$26,4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E53" t="e">
+        <f t="shared" ref="E53:E84" si="24">VLOOKUP(B53,$AP$4:$BE$26,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F53" t="e">
+        <f t="shared" ref="F53:F84" si="25">VLOOKUP(B53,$AP$4:$BE$26,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G53" t="e">
+        <f t="shared" ref="G53:G84" si="26">VLOOKUP(B53,$AP$4:$BE$26,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H53" t="e">
+        <f t="shared" ref="H53:H84" si="27">VLOOKUP(B53,$AP$4:$BE$26,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I53" t="e">
+        <f t="shared" ref="I53:I84" si="28">VLOOKUP(B53,$AP$4:$BE$26,12,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J53" t="e">
+        <f t="shared" ref="J53:J84" si="29">VLOOKUP(B53,$AP$4:$BE$26,11,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K53" t="e">
+        <f t="shared" ref="K53:K84" si="30">VLOOKUP(B53,$AP$4:$BE$26,13,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L53" t="e">
+        <f t="shared" ref="L53:L84" si="31">VLOOKUP(B53,$AP$4:$BE$26,16,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M53" t="e">
+        <f t="shared" ref="M53:M84" si="32">VLOOKUP(B53,$AP$4:$BE$26,15,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="25.5">
+      <c r="A54" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B50" s="23" t="s">
+      <c r="B54" s="23" t="s">
         <v>303</v>
       </c>
-      <c r="C50" t="e">
-        <f>VLOOKUP(B50,$AP$4:$BE$26,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D50" t="e">
-        <f>VLOOKUP(B50,$AP$4:$BE$26,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E50" t="e">
-        <f>VLOOKUP(B50,$AP$4:$BE$26,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F50" t="e">
-        <f>VLOOKUP(B50,$AP$4:$BE$26,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G50" t="e">
-        <f>VLOOKUP(B50,$AP$4:$BE$26,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H50" t="e">
-        <f>VLOOKUP(B50,$AP$4:$BE$26,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I50" t="e">
-        <f>VLOOKUP(B50,$AP$4:$BE$26,12,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J50" t="e">
-        <f>VLOOKUP(B50,$AP$4:$BE$26,11,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K50" t="e">
-        <f>VLOOKUP(B50,$AP$4:$BE$26,13,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L50" t="e">
-        <f>VLOOKUP(B50,$AP$4:$BE$26,16,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M50" t="e">
-        <f>VLOOKUP(B50,$AP$4:$BE$26,15,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="25.5">
-      <c r="A51" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B51" s="23" t="s">
-        <v>329</v>
-      </c>
-      <c r="C51" t="e">
-        <f>VLOOKUP(B51,$AP$4:$BE$26,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D51" t="e">
-        <f>VLOOKUP(B51,$AP$4:$BE$26,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E51" t="e">
-        <f>VLOOKUP(B51,$AP$4:$BE$26,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F51" t="e">
-        <f>VLOOKUP(B51,$AP$4:$BE$26,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G51" t="e">
-        <f>VLOOKUP(B51,$AP$4:$BE$26,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H51" t="e">
-        <f>VLOOKUP(B51,$AP$4:$BE$26,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I51" t="e">
-        <f>VLOOKUP(B51,$AP$4:$BE$26,12,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J51" t="e">
-        <f>VLOOKUP(B51,$AP$4:$BE$26,11,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K51" t="e">
-        <f>VLOOKUP(B51,$AP$4:$BE$26,13,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L51" t="e">
-        <f>VLOOKUP(B51,$AP$4:$BE$26,16,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M51" t="e">
-        <f>VLOOKUP(B51,$AP$4:$BE$26,15,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="25.5">
-      <c r="A52" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B52" s="23" t="s">
-        <v>300</v>
-      </c>
-      <c r="C52" t="e">
-        <f>VLOOKUP(B52,$AP$4:$BE$26,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D52" t="e">
-        <f>VLOOKUP(B52,$AP$4:$BE$26,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E52" t="e">
-        <f>VLOOKUP(B52,$AP$4:$BE$26,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F52" t="e">
-        <f>VLOOKUP(B52,$AP$4:$BE$26,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G52" t="e">
-        <f>VLOOKUP(B52,$AP$4:$BE$26,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H52" t="e">
-        <f>VLOOKUP(B52,$AP$4:$BE$26,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I52" t="e">
-        <f>VLOOKUP(B52,$AP$4:$BE$26,12,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J52" t="e">
-        <f>VLOOKUP(B52,$AP$4:$BE$26,11,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K52" t="e">
-        <f>VLOOKUP(B52,$AP$4:$BE$26,13,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L52" t="e">
-        <f>VLOOKUP(B52,$AP$4:$BE$26,16,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M52" t="e">
-        <f>VLOOKUP(B52,$AP$4:$BE$26,15,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
-      <c r="A53" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B53" s="23" t="s">
-        <v>330</v>
-      </c>
-      <c r="C53" t="e">
-        <f>VLOOKUP(B53,$AP$4:$BE$26,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D53" t="e">
-        <f>VLOOKUP(B53,$AP$4:$BE$26,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E53" t="e">
-        <f>VLOOKUP(B53,$AP$4:$BE$26,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F53" t="e">
-        <f>VLOOKUP(B53,$AP$4:$BE$26,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G53" t="e">
-        <f>VLOOKUP(B53,$AP$4:$BE$26,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H53" t="e">
-        <f>VLOOKUP(B53,$AP$4:$BE$26,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I53" t="e">
-        <f>VLOOKUP(B53,$AP$4:$BE$26,12,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J53" t="e">
-        <f>VLOOKUP(B53,$AP$4:$BE$26,11,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K53" t="e">
-        <f>VLOOKUP(B53,$AP$4:$BE$26,13,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L53" t="e">
-        <f>VLOOKUP(B53,$AP$4:$BE$26,16,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M53" t="e">
-        <f>VLOOKUP(B53,$AP$4:$BE$26,15,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="A54" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B54" s="23" t="s">
-        <v>331</v>
-      </c>
       <c r="C54" t="e">
-        <f>VLOOKUP(B54,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="D54" t="e">
-        <f>VLOOKUP(B54,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="E54" t="e">
-        <f>VLOOKUP(B54,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="F54" t="e">
-        <f>VLOOKUP(B54,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G54" t="e">
-        <f>VLOOKUP(B54,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="H54" t="e">
-        <f>VLOOKUP(B54,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="I54" t="e">
-        <f>VLOOKUP(B54,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="J54" t="e">
-        <f>VLOOKUP(B54,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="K54" t="e">
-        <f>VLOOKUP(B54,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
       <c r="L54" t="e">
-        <f>VLOOKUP(B54,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="M54" t="e">
-        <f>VLOOKUP(B54,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="25.5">
       <c r="A55" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C55" t="e">
-        <f>VLOOKUP(B55,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="D55" t="e">
-        <f>VLOOKUP(B55,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="E55" t="e">
-        <f>VLOOKUP(B55,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="F55" t="e">
-        <f>VLOOKUP(B55,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G55" t="e">
-        <f>VLOOKUP(B55,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="H55" t="e">
-        <f>VLOOKUP(B55,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="I55" t="e">
-        <f>VLOOKUP(B55,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="J55" t="e">
-        <f>VLOOKUP(B55,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="K55" t="e">
-        <f>VLOOKUP(B55,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
       <c r="L55" t="e">
-        <f>VLOOKUP(B55,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="M55" t="e">
-        <f>VLOOKUP(B55,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -16104,154 +16116,154 @@
         <v>44</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="C56" t="e">
-        <f>VLOOKUP(B56,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="D56" t="e">
-        <f>VLOOKUP(B56,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="E56" t="e">
-        <f>VLOOKUP(B56,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="F56" t="e">
-        <f>VLOOKUP(B56,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G56" t="e">
-        <f>VLOOKUP(B56,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="H56" t="e">
-        <f>VLOOKUP(B56,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="I56" t="e">
-        <f>VLOOKUP(B56,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="J56" t="e">
-        <f>VLOOKUP(B56,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="K56" t="e">
-        <f>VLOOKUP(B56,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
       <c r="L56" t="e">
-        <f>VLOOKUP(B56,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="M56" t="e">
-        <f>VLOOKUP(B56,$AP$4:$BE$26,15,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" ht="25.5">
+        <f t="shared" si="32"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B57" s="23" t="s">
+        <v>330</v>
+      </c>
+      <c r="C57" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D57" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E57" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F57" t="e">
+        <f t="shared" si="25"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G57" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H57" t="e">
+        <f t="shared" si="27"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I57" t="e">
+        <f t="shared" si="28"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J57" t="e">
+        <f t="shared" si="29"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K57" t="e">
+        <f t="shared" si="30"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L57" t="e">
+        <f t="shared" si="31"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M57" t="e">
+        <f t="shared" si="32"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B57" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="C57" t="e">
-        <f>VLOOKUP(B57,$AP$4:$BE$26,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D57" t="e">
-        <f>VLOOKUP(B57,$AP$4:$BE$26,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E57" t="e">
-        <f>VLOOKUP(B57,$AP$4:$BE$26,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F57" t="e">
-        <f>VLOOKUP(B57,$AP$4:$BE$26,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G57" t="e">
-        <f>VLOOKUP(B57,$AP$4:$BE$26,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H57" t="e">
-        <f>VLOOKUP(B57,$AP$4:$BE$26,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I57" t="e">
-        <f>VLOOKUP(B57,$AP$4:$BE$26,12,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J57" t="e">
-        <f>VLOOKUP(B57,$AP$4:$BE$26,11,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K57" t="e">
-        <f>VLOOKUP(B57,$AP$4:$BE$26,13,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L57" t="e">
-        <f>VLOOKUP(B57,$AP$4:$BE$26,16,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M57" t="e">
-        <f>VLOOKUP(B57,$AP$4:$BE$26,15,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" ht="25.5">
-      <c r="A58" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="B58" s="23" t="s">
-        <v>307</v>
+        <v>331</v>
       </c>
       <c r="C58" t="e">
-        <f>VLOOKUP(B58,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="D58" t="e">
-        <f>VLOOKUP(B58,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="E58" t="e">
-        <f>VLOOKUP(B58,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="F58" t="e">
-        <f>VLOOKUP(B58,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G58" t="e">
-        <f>VLOOKUP(B58,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="H58" t="e">
-        <f>VLOOKUP(B58,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="I58" t="e">
-        <f>VLOOKUP(B58,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="J58" t="e">
-        <f>VLOOKUP(B58,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="K58" t="e">
-        <f>VLOOKUP(B58,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
       <c r="L58" t="e">
-        <f>VLOOKUP(B58,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="M58" t="e">
-        <f>VLOOKUP(B58,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -16260,362 +16272,362 @@
         <v>41</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C59" t="e">
-        <f>VLOOKUP(B59,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="D59" t="e">
-        <f>VLOOKUP(B59,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="E59" t="e">
-        <f>VLOOKUP(B59,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="F59" t="e">
-        <f>VLOOKUP(B59,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G59" t="e">
-        <f>VLOOKUP(B59,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="H59" t="e">
-        <f>VLOOKUP(B59,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="I59" t="e">
-        <f>VLOOKUP(B59,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="J59" t="e">
-        <f>VLOOKUP(B59,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="K59" t="e">
-        <f>VLOOKUP(B59,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
       <c r="L59" t="e">
-        <f>VLOOKUP(B59,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="M59" t="e">
-        <f>VLOOKUP(B59,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="25.5">
       <c r="A60" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B60" s="23" t="s">
+        <v>333</v>
+      </c>
+      <c r="C60" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D60" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E60" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F60" t="e">
+        <f t="shared" si="25"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G60" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H60" t="e">
+        <f t="shared" si="27"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I60" t="e">
+        <f t="shared" si="28"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J60" t="e">
+        <f t="shared" si="29"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K60" t="e">
+        <f t="shared" si="30"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L60" t="e">
+        <f t="shared" si="31"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M60" t="e">
+        <f t="shared" si="32"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="25.5">
+      <c r="A61" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B60" s="23" t="s">
-        <v>308</v>
-      </c>
-      <c r="C60" t="e">
-        <f>VLOOKUP(B60,$AP$4:$BE$26,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D60" t="e">
-        <f>VLOOKUP(B60,$AP$4:$BE$26,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E60" t="e">
-        <f>VLOOKUP(B60,$AP$4:$BE$26,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F60" t="e">
-        <f>VLOOKUP(B60,$AP$4:$BE$26,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G60" t="e">
-        <f>VLOOKUP(B60,$AP$4:$BE$26,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H60" t="e">
-        <f>VLOOKUP(B60,$AP$4:$BE$26,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I60" t="e">
-        <f>VLOOKUP(B60,$AP$4:$BE$26,12,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J60" t="e">
-        <f>VLOOKUP(B60,$AP$4:$BE$26,11,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K60" t="e">
-        <f>VLOOKUP(B60,$AP$4:$BE$26,13,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L60" t="e">
-        <f>VLOOKUP(B60,$AP$4:$BE$26,16,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M60" t="e">
-        <f>VLOOKUP(B60,$AP$4:$BE$26,15,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
-      <c r="A61" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="B61" s="23" t="s">
-        <v>335</v>
+        <v>304</v>
       </c>
       <c r="C61" t="e">
-        <f>VLOOKUP(B61,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="D61" t="e">
-        <f>VLOOKUP(B61,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="E61" t="e">
-        <f>VLOOKUP(B61,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="F61" t="e">
-        <f>VLOOKUP(B61,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G61" t="e">
-        <f>VLOOKUP(B61,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="H61" t="e">
-        <f>VLOOKUP(B61,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="I61" t="e">
-        <f>VLOOKUP(B61,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="J61" t="e">
-        <f>VLOOKUP(B61,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="K61" t="e">
-        <f>VLOOKUP(B61,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
       <c r="L61" t="e">
-        <f>VLOOKUP(B61,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="M61" t="e">
-        <f>VLOOKUP(B61,$AP$4:$BE$26,15,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
+        <f t="shared" si="32"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="25.5">
       <c r="A62" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="C62" t="e">
-        <f>VLOOKUP(B62,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="D62" t="e">
-        <f>VLOOKUP(B62,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="E62" t="e">
-        <f>VLOOKUP(B62,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="F62" t="e">
-        <f>VLOOKUP(B62,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G62" t="e">
-        <f>VLOOKUP(B62,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="H62" t="e">
-        <f>VLOOKUP(B62,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="I62" t="e">
-        <f>VLOOKUP(B62,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="J62" t="e">
-        <f>VLOOKUP(B62,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="K62" t="e">
-        <f>VLOOKUP(B62,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
       <c r="L62" t="e">
-        <f>VLOOKUP(B62,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="M62" t="e">
-        <f>VLOOKUP(B62,$AP$4:$BE$26,15,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
+        <f t="shared" si="32"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="25.5">
       <c r="A63" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C63" t="e">
-        <f>VLOOKUP(B63,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="D63" t="e">
-        <f>VLOOKUP(B63,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="E63" t="e">
-        <f>VLOOKUP(B63,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="F63" t="e">
-        <f>VLOOKUP(B63,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G63" t="e">
-        <f>VLOOKUP(B63,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="H63" t="e">
-        <f>VLOOKUP(B63,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="I63" t="e">
-        <f>VLOOKUP(B63,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="J63" t="e">
-        <f>VLOOKUP(B63,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="K63" t="e">
-        <f>VLOOKUP(B63,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
       <c r="L63" t="e">
-        <f>VLOOKUP(B63,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="M63" t="e">
-        <f>VLOOKUP(B63,$AP$4:$BE$26,15,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
+        <f t="shared" si="32"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="25.5">
       <c r="A64" s="2" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="C64" t="e">
-        <f>VLOOKUP(B64,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="D64" t="e">
-        <f>VLOOKUP(B64,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="E64" t="e">
-        <f>VLOOKUP(B64,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="F64" t="e">
-        <f>VLOOKUP(B64,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G64" t="e">
-        <f>VLOOKUP(B64,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="H64" t="e">
-        <f>VLOOKUP(B64,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="I64" t="e">
-        <f>VLOOKUP(B64,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="J64" t="e">
-        <f>VLOOKUP(B64,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="K64" t="e">
-        <f>VLOOKUP(B64,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
       <c r="L64" t="e">
-        <f>VLOOKUP(B64,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="M64" t="e">
-        <f>VLOOKUP(B64,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="2" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>293</v>
+        <v>335</v>
       </c>
       <c r="C65" t="e">
-        <f>VLOOKUP(B65,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="D65" t="e">
-        <f>VLOOKUP(B65,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="E65" t="e">
-        <f>VLOOKUP(B65,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="F65" t="e">
-        <f>VLOOKUP(B65,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G65" t="e">
-        <f>VLOOKUP(B65,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="H65" t="e">
-        <f>VLOOKUP(B65,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="I65" t="e">
-        <f>VLOOKUP(B65,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="J65" t="e">
-        <f>VLOOKUP(B65,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="K65" t="e">
-        <f>VLOOKUP(B65,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
       <c r="L65" t="e">
-        <f>VLOOKUP(B65,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="M65" t="e">
-        <f>VLOOKUP(B65,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -16624,362 +16636,362 @@
         <v>32</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>309</v>
+        <v>336</v>
       </c>
       <c r="C66" t="e">
-        <f>VLOOKUP(B66,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="D66" t="e">
-        <f>VLOOKUP(B66,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="E66" t="e">
-        <f>VLOOKUP(B66,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="F66" t="e">
-        <f>VLOOKUP(B66,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G66" t="e">
-        <f>VLOOKUP(B66,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="H66" t="e">
-        <f>VLOOKUP(B66,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="I66" t="e">
-        <f>VLOOKUP(B66,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="J66" t="e">
-        <f>VLOOKUP(B66,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="K66" t="e">
-        <f>VLOOKUP(B66,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
       <c r="L66" t="e">
-        <f>VLOOKUP(B66,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="M66" t="e">
-        <f>VLOOKUP(B66,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="2" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C67" t="e">
-        <f>VLOOKUP(B67,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="D67" t="e">
-        <f>VLOOKUP(B67,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="E67" t="e">
-        <f>VLOOKUP(B67,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="F67" t="e">
-        <f>VLOOKUP(B67,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G67" t="e">
-        <f>VLOOKUP(B67,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="H67" t="e">
-        <f>VLOOKUP(B67,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="I67" t="e">
-        <f>VLOOKUP(B67,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="J67" t="e">
-        <f>VLOOKUP(B67,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="K67" t="e">
-        <f>VLOOKUP(B67,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
       <c r="L67" t="e">
-        <f>VLOOKUP(B67,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="M67" t="e">
-        <f>VLOOKUP(B67,$AP$4:$BE$26,15,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" ht="25.5">
+        <f t="shared" si="32"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="2" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="C68" t="e">
-        <f>VLOOKUP(B68,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="D68" t="e">
-        <f>VLOOKUP(B68,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="E68" t="e">
-        <f>VLOOKUP(B68,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="F68" t="e">
-        <f>VLOOKUP(B68,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G68" t="e">
-        <f>VLOOKUP(B68,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="H68" t="e">
-        <f>VLOOKUP(B68,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="I68" t="e">
-        <f>VLOOKUP(B68,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="J68" t="e">
-        <f>VLOOKUP(B68,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="K68" t="e">
-        <f>VLOOKUP(B68,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
       <c r="L68" t="e">
-        <f>VLOOKUP(B68,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="M68" t="e">
-        <f>VLOOKUP(B68,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>339</v>
+        <v>293</v>
       </c>
       <c r="C69" t="e">
-        <f>VLOOKUP(B69,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="D69" t="e">
-        <f>VLOOKUP(B69,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="E69" t="e">
-        <f>VLOOKUP(B69,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="F69" t="e">
-        <f>VLOOKUP(B69,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G69" t="e">
-        <f>VLOOKUP(B69,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="H69" t="e">
-        <f>VLOOKUP(B69,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="I69" t="e">
-        <f>VLOOKUP(B69,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="J69" t="e">
-        <f>VLOOKUP(B69,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="K69" t="e">
-        <f>VLOOKUP(B69,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
       <c r="L69" t="e">
-        <f>VLOOKUP(B69,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="M69" t="e">
-        <f>VLOOKUP(B69,$AP$4:$BE$26,15,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" ht="25.5">
+        <f t="shared" si="32"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="C70" t="e">
-        <f>VLOOKUP(B70,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="D70" t="e">
-        <f>VLOOKUP(B70,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="E70" t="e">
-        <f>VLOOKUP(B70,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="F70" t="e">
-        <f>VLOOKUP(B70,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G70" t="e">
-        <f>VLOOKUP(B70,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="H70" t="e">
-        <f>VLOOKUP(B70,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="I70" t="e">
-        <f>VLOOKUP(B70,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="J70" t="e">
-        <f>VLOOKUP(B70,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="K70" t="e">
-        <f>VLOOKUP(B70,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
       <c r="L70" t="e">
-        <f>VLOOKUP(B70,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="M70" t="e">
-        <f>VLOOKUP(B70,$AP$4:$BE$26,15,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" ht="25.5">
+        <f t="shared" si="32"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="2" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C71" t="e">
-        <f>VLOOKUP(B71,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="D71" t="e">
-        <f>VLOOKUP(B71,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="E71" t="e">
-        <f>VLOOKUP(B71,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="F71" t="e">
-        <f>VLOOKUP(B71,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G71" t="e">
-        <f>VLOOKUP(B71,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="H71" t="e">
-        <f>VLOOKUP(B71,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="I71" t="e">
-        <f>VLOOKUP(B71,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="J71" t="e">
-        <f>VLOOKUP(B71,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="K71" t="e">
-        <f>VLOOKUP(B71,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
       <c r="L71" t="e">
-        <f>VLOOKUP(B71,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="M71" t="e">
-        <f>VLOOKUP(B71,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="25.5">
       <c r="A72" s="2" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="C72" t="e">
-        <f>VLOOKUP(B72,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="D72" t="e">
-        <f>VLOOKUP(B72,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="E72" t="e">
-        <f>VLOOKUP(B72,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="F72" t="e">
-        <f>VLOOKUP(B72,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G72" t="e">
-        <f>VLOOKUP(B72,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="H72" t="e">
-        <f>VLOOKUP(B72,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="I72" t="e">
-        <f>VLOOKUP(B72,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="J72" t="e">
-        <f>VLOOKUP(B72,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="K72" t="e">
-        <f>VLOOKUP(B72,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
       <c r="L72" t="e">
-        <f>VLOOKUP(B72,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="M72" t="e">
-        <f>VLOOKUP(B72,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -16988,1142 +17000,1142 @@
         <v>41</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C73" t="e">
-        <f>VLOOKUP(B73,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="D73" t="e">
-        <f>VLOOKUP(B73,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="E73" t="e">
-        <f>VLOOKUP(B73,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="F73" t="e">
-        <f>VLOOKUP(B73,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G73" t="e">
-        <f>VLOOKUP(B73,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="H73" t="e">
-        <f>VLOOKUP(B73,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="I73" t="e">
-        <f>VLOOKUP(B73,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="J73" t="e">
-        <f>VLOOKUP(B73,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="K73" t="e">
-        <f>VLOOKUP(B73,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
       <c r="L73" t="e">
-        <f>VLOOKUP(B73,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="M73" t="e">
-        <f>VLOOKUP(B73,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="25.5">
       <c r="A74" s="2" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>342</v>
+        <v>296</v>
       </c>
       <c r="C74" t="e">
-        <f>VLOOKUP(B74,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="D74" t="e">
-        <f>VLOOKUP(B74,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="E74" t="e">
-        <f>VLOOKUP(B74,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="F74" t="e">
-        <f>VLOOKUP(B74,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G74" t="e">
-        <f>VLOOKUP(B74,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="H74" t="e">
-        <f>VLOOKUP(B74,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="I74" t="e">
-        <f>VLOOKUP(B74,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="J74" t="e">
-        <f>VLOOKUP(B74,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="K74" t="e">
-        <f>VLOOKUP(B74,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
       <c r="L74" t="e">
-        <f>VLOOKUP(B74,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="M74" t="e">
-        <f>VLOOKUP(B74,$AP$4:$BE$26,15,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
+        <f t="shared" si="32"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="25.5">
       <c r="A75" s="2" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="C75" t="e">
-        <f>VLOOKUP(B75,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="D75" t="e">
-        <f>VLOOKUP(B75,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="E75" t="e">
-        <f>VLOOKUP(B75,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="F75" t="e">
-        <f>VLOOKUP(B75,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G75" t="e">
-        <f>VLOOKUP(B75,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="H75" t="e">
-        <f>VLOOKUP(B75,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="I75" t="e">
-        <f>VLOOKUP(B75,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="J75" t="e">
-        <f>VLOOKUP(B75,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="K75" t="e">
-        <f>VLOOKUP(B75,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
       <c r="L75" t="e">
-        <f>VLOOKUP(B75,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="M75" t="e">
-        <f>VLOOKUP(B75,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="25.5">
       <c r="A76" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>343</v>
+        <v>297</v>
       </c>
       <c r="C76" t="e">
-        <f>VLOOKUP(B76,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="D76" t="e">
-        <f>VLOOKUP(B76,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="E76" t="e">
-        <f>VLOOKUP(B76,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="F76" t="e">
-        <f>VLOOKUP(B76,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G76" t="e">
-        <f>VLOOKUP(B76,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="H76" t="e">
-        <f>VLOOKUP(B76,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="I76" t="e">
-        <f>VLOOKUP(B76,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="J76" t="e">
-        <f>VLOOKUP(B76,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="K76" t="e">
-        <f>VLOOKUP(B76,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
       <c r="L76" t="e">
-        <f>VLOOKUP(B76,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="M76" t="e">
-        <f>VLOOKUP(B76,$AP$4:$BE$26,15,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" ht="38.25">
+        <f t="shared" si="32"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C77" t="e">
-        <f>VLOOKUP(B77,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="D77" t="e">
-        <f>VLOOKUP(B77,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="E77" t="e">
-        <f>VLOOKUP(B77,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="F77" t="e">
-        <f>VLOOKUP(B77,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G77" t="e">
-        <f>VLOOKUP(B77,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="H77" t="e">
-        <f>VLOOKUP(B77,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="I77" t="e">
-        <f>VLOOKUP(B77,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="J77" t="e">
-        <f>VLOOKUP(B77,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="K77" t="e">
-        <f>VLOOKUP(B77,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
       <c r="L77" t="e">
-        <f>VLOOKUP(B77,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="M77" t="e">
-        <f>VLOOKUP(B77,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="25.5">
       <c r="A78" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B78" s="23" t="s">
+        <v>342</v>
+      </c>
+      <c r="C78" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D78" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E78" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F78" t="e">
+        <f t="shared" si="25"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G78" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H78" t="e">
+        <f t="shared" si="27"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I78" t="e">
+        <f t="shared" si="28"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J78" t="e">
+        <f t="shared" si="29"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K78" t="e">
+        <f t="shared" si="30"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L78" t="e">
+        <f t="shared" si="31"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M78" t="e">
+        <f t="shared" si="32"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="C79" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D79" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E79" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F79" t="e">
+        <f t="shared" si="25"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G79" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H79" t="e">
+        <f t="shared" si="27"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I79" t="e">
+        <f t="shared" si="28"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J79" t="e">
+        <f t="shared" si="29"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K79" t="e">
+        <f t="shared" si="30"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L79" t="e">
+        <f t="shared" si="31"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M79" t="e">
+        <f t="shared" si="32"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="25.5">
+      <c r="A80" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B80" s="23" t="s">
+        <v>343</v>
+      </c>
+      <c r="C80" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D80" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E80" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F80" t="e">
+        <f t="shared" si="25"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G80" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H80" t="e">
+        <f t="shared" si="27"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I80" t="e">
+        <f t="shared" si="28"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J80" t="e">
+        <f t="shared" si="29"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K80" t="e">
+        <f t="shared" si="30"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L80" t="e">
+        <f t="shared" si="31"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M80" t="e">
+        <f t="shared" si="32"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="38.25">
+      <c r="A81" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B78" s="23" t="s">
-        <v>345</v>
-      </c>
-      <c r="C78" t="e">
-        <f>VLOOKUP(B78,$AP$4:$BE$26,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D78" t="e">
-        <f>VLOOKUP(B78,$AP$4:$BE$26,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E78" t="e">
-        <f>VLOOKUP(B78,$AP$4:$BE$26,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F78" t="e">
-        <f>VLOOKUP(B78,$AP$4:$BE$26,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G78" t="e">
-        <f>VLOOKUP(B78,$AP$4:$BE$26,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H78" t="e">
-        <f>VLOOKUP(B78,$AP$4:$BE$26,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I78" t="e">
-        <f>VLOOKUP(B78,$AP$4:$BE$26,12,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J78" t="e">
-        <f>VLOOKUP(B78,$AP$4:$BE$26,11,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K78" t="e">
-        <f>VLOOKUP(B78,$AP$4:$BE$26,13,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L78" t="e">
-        <f>VLOOKUP(B78,$AP$4:$BE$26,16,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M78" t="e">
-        <f>VLOOKUP(B78,$AP$4:$BE$26,15,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" ht="25.5">
-      <c r="A79" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B79" s="23" t="s">
-        <v>346</v>
-      </c>
-      <c r="C79" t="e">
-        <f>VLOOKUP(B79,$AP$4:$BE$26,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D79" t="e">
-        <f>VLOOKUP(B79,$AP$4:$BE$26,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E79" t="e">
-        <f>VLOOKUP(B79,$AP$4:$BE$26,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F79" t="e">
-        <f>VLOOKUP(B79,$AP$4:$BE$26,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G79" t="e">
-        <f>VLOOKUP(B79,$AP$4:$BE$26,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H79" t="e">
-        <f>VLOOKUP(B79,$AP$4:$BE$26,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I79" t="e">
-        <f>VLOOKUP(B79,$AP$4:$BE$26,12,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J79" t="e">
-        <f>VLOOKUP(B79,$AP$4:$BE$26,11,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K79" t="e">
-        <f>VLOOKUP(B79,$AP$4:$BE$26,13,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L79" t="e">
-        <f>VLOOKUP(B79,$AP$4:$BE$26,16,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M79" t="e">
-        <f>VLOOKUP(B79,$AP$4:$BE$26,15,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13">
-      <c r="A80" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B80" s="23" t="s">
-        <v>302</v>
-      </c>
-      <c r="C80" t="e">
-        <f>VLOOKUP(B80,$AP$4:$BE$26,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D80" t="e">
-        <f>VLOOKUP(B80,$AP$4:$BE$26,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E80" t="e">
-        <f>VLOOKUP(B80,$AP$4:$BE$26,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F80" t="e">
-        <f>VLOOKUP(B80,$AP$4:$BE$26,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G80" t="e">
-        <f>VLOOKUP(B80,$AP$4:$BE$26,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H80" t="e">
-        <f>VLOOKUP(B80,$AP$4:$BE$26,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I80" t="e">
-        <f>VLOOKUP(B80,$AP$4:$BE$26,12,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J80" t="e">
-        <f>VLOOKUP(B80,$AP$4:$BE$26,11,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K80" t="e">
-        <f>VLOOKUP(B80,$AP$4:$BE$26,13,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L80" t="e">
-        <f>VLOOKUP(B80,$AP$4:$BE$26,16,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M80" t="e">
-        <f>VLOOKUP(B80,$AP$4:$BE$26,15,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13">
-      <c r="A81" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="B81" s="23" t="s">
-        <v>301</v>
+        <v>344</v>
       </c>
       <c r="C81" t="e">
-        <f>VLOOKUP(B81,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="D81" t="e">
-        <f>VLOOKUP(B81,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="E81" t="e">
-        <f>VLOOKUP(B81,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="F81" t="e">
-        <f>VLOOKUP(B81,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G81" t="e">
-        <f>VLOOKUP(B81,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="H81" t="e">
-        <f>VLOOKUP(B81,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="I81" t="e">
-        <f>VLOOKUP(B81,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="J81" t="e">
-        <f>VLOOKUP(B81,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="K81" t="e">
-        <f>VLOOKUP(B81,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
       <c r="L81" t="e">
-        <f>VLOOKUP(B81,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="M81" t="e">
-        <f>VLOOKUP(B81,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="25.5">
       <c r="A82" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C82" t="e">
-        <f>VLOOKUP(B82,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="D82" t="e">
-        <f>VLOOKUP(B82,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="E82" t="e">
-        <f>VLOOKUP(B82,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="F82" t="e">
-        <f>VLOOKUP(B82,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G82" t="e">
-        <f>VLOOKUP(B82,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="H82" t="e">
-        <f>VLOOKUP(B82,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="I82" t="e">
-        <f>VLOOKUP(B82,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="J82" t="e">
-        <f>VLOOKUP(B82,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="K82" t="e">
-        <f>VLOOKUP(B82,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
       <c r="L82" t="e">
-        <f>VLOOKUP(B82,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="M82" t="e">
-        <f>VLOOKUP(B82,$AP$4:$BE$26,15,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13">
+        <f t="shared" si="32"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="25.5">
       <c r="A83" s="2" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="C83" t="e">
-        <f>VLOOKUP(B83,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="D83" t="e">
-        <f>VLOOKUP(B83,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="E83" t="e">
-        <f>VLOOKUP(B83,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="F83" t="e">
-        <f>VLOOKUP(B83,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G83" t="e">
-        <f>VLOOKUP(B83,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="H83" t="e">
-        <f>VLOOKUP(B83,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="I83" t="e">
-        <f>VLOOKUP(B83,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="J83" t="e">
-        <f>VLOOKUP(B83,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="K83" t="e">
-        <f>VLOOKUP(B83,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
       <c r="L83" t="e">
-        <f>VLOOKUP(B83,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="M83" t="e">
-        <f>VLOOKUP(B83,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="2" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="B84" s="23" t="s">
-        <v>348</v>
+        <v>302</v>
       </c>
       <c r="C84" t="e">
-        <f>VLOOKUP(B84,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="D84" t="e">
-        <f>VLOOKUP(B84,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="E84" t="e">
-        <f>VLOOKUP(B84,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="F84" t="e">
-        <f>VLOOKUP(B84,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="G84" t="e">
-        <f>VLOOKUP(B84,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="H84" t="e">
-        <f>VLOOKUP(B84,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="I84" t="e">
-        <f>VLOOKUP(B84,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="J84" t="e">
-        <f>VLOOKUP(B84,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="K84" t="e">
-        <f>VLOOKUP(B84,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
       <c r="L84" t="e">
-        <f>VLOOKUP(B84,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="M84" t="e">
-        <f>VLOOKUP(B84,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B85" s="23" t="s">
-        <v>349</v>
+        <v>301</v>
       </c>
       <c r="C85" t="e">
-        <f>VLOOKUP(B85,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" ref="C85:C102" si="33">VLOOKUP(B85,$AP$4:$BE$26,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D85" t="e">
-        <f>VLOOKUP(B85,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" ref="D85:D102" si="34">VLOOKUP(B85,$AP$4:$BE$26,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E85" t="e">
-        <f>VLOOKUP(B85,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" ref="E85:E102" si="35">VLOOKUP(B85,$AP$4:$BE$26,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F85" t="e">
-        <f>VLOOKUP(B85,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" ref="F85:F102" si="36">VLOOKUP(B85,$AP$4:$BE$26,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="G85" t="e">
-        <f>VLOOKUP(B85,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" ref="G85:G102" si="37">VLOOKUP(B85,$AP$4:$BE$26,7,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H85" t="e">
-        <f>VLOOKUP(B85,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" ref="H85:H102" si="38">VLOOKUP(B85,$AP$4:$BE$26,8,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I85" t="e">
-        <f>VLOOKUP(B85,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" ref="I85:I102" si="39">VLOOKUP(B85,$AP$4:$BE$26,12,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J85" t="e">
-        <f>VLOOKUP(B85,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" ref="J85:J102" si="40">VLOOKUP(B85,$AP$4:$BE$26,11,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K85" t="e">
-        <f>VLOOKUP(B85,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" ref="K85:K102" si="41">VLOOKUP(B85,$AP$4:$BE$26,13,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L85" t="e">
-        <f>VLOOKUP(B85,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" ref="L85:L102" si="42">VLOOKUP(B85,$AP$4:$BE$26,16,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M85" t="e">
-        <f>VLOOKUP(B85,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" ref="M85:M102" si="43">VLOOKUP(B85,$AP$4:$BE$26,15,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="25.5">
       <c r="A86" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B86" s="23" t="s">
+        <v>347</v>
+      </c>
+      <c r="C86" t="e">
+        <f t="shared" si="33"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D86" t="e">
+        <f t="shared" si="34"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E86" t="e">
+        <f t="shared" si="35"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F86" t="e">
+        <f t="shared" si="36"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G86" t="e">
+        <f t="shared" si="37"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H86" t="e">
+        <f t="shared" si="38"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I86" t="e">
+        <f t="shared" si="39"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J86" t="e">
+        <f t="shared" si="40"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K86" t="e">
+        <f t="shared" si="41"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L86" t="e">
+        <f t="shared" si="42"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M86" t="e">
+        <f t="shared" si="43"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B86" s="23" t="s">
-        <v>350</v>
-      </c>
-      <c r="C86" t="e">
-        <f>VLOOKUP(B86,$AP$4:$BE$26,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D86" t="e">
-        <f>VLOOKUP(B86,$AP$4:$BE$26,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E86" t="e">
-        <f>VLOOKUP(B86,$AP$4:$BE$26,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F86" t="e">
-        <f>VLOOKUP(B86,$AP$4:$BE$26,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G86" t="e">
-        <f>VLOOKUP(B86,$AP$4:$BE$26,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H86" t="e">
-        <f>VLOOKUP(B86,$AP$4:$BE$26,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I86" t="e">
-        <f>VLOOKUP(B86,$AP$4:$BE$26,12,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J86" t="e">
-        <f>VLOOKUP(B86,$AP$4:$BE$26,11,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K86" t="e">
-        <f>VLOOKUP(B86,$AP$4:$BE$26,13,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L86" t="e">
-        <f>VLOOKUP(B86,$AP$4:$BE$26,16,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M86" t="e">
-        <f>VLOOKUP(B86,$AP$4:$BE$26,15,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" ht="25.5">
-      <c r="A87" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="B87" s="23" t="s">
-        <v>351</v>
+        <v>311</v>
       </c>
       <c r="C87" t="e">
-        <f>VLOOKUP(B87,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="D87" t="e">
-        <f>VLOOKUP(B87,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="34"/>
         <v>#N/A</v>
       </c>
       <c r="E87" t="e">
-        <f>VLOOKUP(B87,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="F87" t="e">
-        <f>VLOOKUP(B87,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
       <c r="G87" t="e">
-        <f>VLOOKUP(B87,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="H87" t="e">
-        <f>VLOOKUP(B87,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="38"/>
         <v>#N/A</v>
       </c>
       <c r="I87" t="e">
-        <f>VLOOKUP(B87,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="39"/>
         <v>#N/A</v>
       </c>
       <c r="J87" t="e">
-        <f>VLOOKUP(B87,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="40"/>
         <v>#N/A</v>
       </c>
       <c r="K87" t="e">
-        <f>VLOOKUP(B87,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="41"/>
         <v>#N/A</v>
       </c>
       <c r="L87" t="e">
-        <f>VLOOKUP(B87,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="42"/>
         <v>#N/A</v>
       </c>
       <c r="M87" t="e">
-        <f>VLOOKUP(B87,$AP$4:$BE$26,15,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" ht="25.5">
+        <f t="shared" si="43"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B88" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="C88" t="e">
+        <f t="shared" si="33"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D88" t="e">
+        <f t="shared" si="34"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E88" t="e">
+        <f t="shared" si="35"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F88" t="e">
+        <f t="shared" si="36"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G88" t="e">
+        <f t="shared" si="37"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H88" t="e">
+        <f t="shared" si="38"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I88" t="e">
+        <f t="shared" si="39"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J88" t="e">
+        <f t="shared" si="40"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K88" t="e">
+        <f t="shared" si="41"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L88" t="e">
+        <f t="shared" si="42"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M88" t="e">
+        <f t="shared" si="43"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B89" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="C89" t="e">
+        <f t="shared" si="33"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D89" t="e">
+        <f t="shared" si="34"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E89" t="e">
+        <f t="shared" si="35"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F89" t="e">
+        <f t="shared" si="36"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G89" t="e">
+        <f t="shared" si="37"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H89" t="e">
+        <f t="shared" si="38"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I89" t="e">
+        <f t="shared" si="39"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J89" t="e">
+        <f t="shared" si="40"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K89" t="e">
+        <f t="shared" si="41"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L89" t="e">
+        <f t="shared" si="42"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M89" t="e">
+        <f t="shared" si="43"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="25.5">
+      <c r="A90" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B90" s="23" t="s">
+        <v>350</v>
+      </c>
+      <c r="C90" t="e">
+        <f t="shared" si="33"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D90" t="e">
+        <f t="shared" si="34"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E90" t="e">
+        <f t="shared" si="35"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F90" t="e">
+        <f t="shared" si="36"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G90" t="e">
+        <f t="shared" si="37"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H90" t="e">
+        <f t="shared" si="38"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I90" t="e">
+        <f t="shared" si="39"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J90" t="e">
+        <f t="shared" si="40"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K90" t="e">
+        <f t="shared" si="41"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L90" t="e">
+        <f t="shared" si="42"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M90" t="e">
+        <f t="shared" si="43"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="25.5">
+      <c r="A91" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B91" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="C91" t="e">
+        <f t="shared" si="33"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D91" t="e">
+        <f t="shared" si="34"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E91" t="e">
+        <f t="shared" si="35"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F91" t="e">
+        <f t="shared" si="36"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G91" t="e">
+        <f t="shared" si="37"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H91" t="e">
+        <f t="shared" si="38"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I91" t="e">
+        <f t="shared" si="39"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J91" t="e">
+        <f t="shared" si="40"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K91" t="e">
+        <f t="shared" si="41"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L91" t="e">
+        <f t="shared" si="42"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M91" t="e">
+        <f t="shared" si="43"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="25.5">
+      <c r="A92" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B92" s="23" t="s">
         <v>352</v>
       </c>
-      <c r="C88" t="e">
-        <f>VLOOKUP(B88,$AP$4:$BE$26,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D88" t="e">
-        <f>VLOOKUP(B88,$AP$4:$BE$26,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E88" t="e">
-        <f>VLOOKUP(B88,$AP$4:$BE$26,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F88" t="e">
-        <f>VLOOKUP(B88,$AP$4:$BE$26,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G88" t="e">
-        <f>VLOOKUP(B88,$AP$4:$BE$26,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H88" t="e">
-        <f>VLOOKUP(B88,$AP$4:$BE$26,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I88" t="e">
-        <f>VLOOKUP(B88,$AP$4:$BE$26,12,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J88" t="e">
-        <f>VLOOKUP(B88,$AP$4:$BE$26,11,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K88" t="e">
-        <f>VLOOKUP(B88,$AP$4:$BE$26,13,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L88" t="e">
-        <f>VLOOKUP(B88,$AP$4:$BE$26,16,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M88" t="e">
-        <f>VLOOKUP(B88,$AP$4:$BE$26,15,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" ht="25.5">
-      <c r="A89" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B89" s="23" t="s">
-        <v>353</v>
-      </c>
-      <c r="C89" t="e">
-        <f>VLOOKUP(B89,$AP$4:$BE$26,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D89" t="e">
-        <f>VLOOKUP(B89,$AP$4:$BE$26,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E89" t="e">
-        <f>VLOOKUP(B89,$AP$4:$BE$26,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F89" t="e">
-        <f>VLOOKUP(B89,$AP$4:$BE$26,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G89" t="e">
-        <f>VLOOKUP(B89,$AP$4:$BE$26,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H89" t="e">
-        <f>VLOOKUP(B89,$AP$4:$BE$26,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I89" t="e">
-        <f>VLOOKUP(B89,$AP$4:$BE$26,12,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J89" t="e">
-        <f>VLOOKUP(B89,$AP$4:$BE$26,11,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K89" t="e">
-        <f>VLOOKUP(B89,$AP$4:$BE$26,13,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L89" t="e">
-        <f>VLOOKUP(B89,$AP$4:$BE$26,16,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M89" t="e">
-        <f>VLOOKUP(B89,$AP$4:$BE$26,15,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13">
-      <c r="A90" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B90" s="23" t="s">
-        <v>354</v>
-      </c>
-      <c r="C90" t="e">
-        <f>VLOOKUP(B90,$AP$4:$BE$26,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D90" t="e">
-        <f>VLOOKUP(B90,$AP$4:$BE$26,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E90" t="e">
-        <f>VLOOKUP(B90,$AP$4:$BE$26,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F90" t="e">
-        <f>VLOOKUP(B90,$AP$4:$BE$26,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G90" t="e">
-        <f>VLOOKUP(B90,$AP$4:$BE$26,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H90" t="e">
-        <f>VLOOKUP(B90,$AP$4:$BE$26,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I90" t="e">
-        <f>VLOOKUP(B90,$AP$4:$BE$26,12,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J90" t="e">
-        <f>VLOOKUP(B90,$AP$4:$BE$26,11,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K90" t="e">
-        <f>VLOOKUP(B90,$AP$4:$BE$26,13,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L90" t="e">
-        <f>VLOOKUP(B90,$AP$4:$BE$26,16,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M90" t="e">
-        <f>VLOOKUP(B90,$AP$4:$BE$26,15,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13">
-      <c r="A91" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B91" s="23" t="s">
-        <v>299</v>
-      </c>
-      <c r="C91" t="e">
-        <f>VLOOKUP(B91,$AP$4:$BE$26,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D91" t="e">
-        <f>VLOOKUP(B91,$AP$4:$BE$26,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E91" t="e">
-        <f>VLOOKUP(B91,$AP$4:$BE$26,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F91" t="e">
-        <f>VLOOKUP(B91,$AP$4:$BE$26,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G91" t="e">
-        <f>VLOOKUP(B91,$AP$4:$BE$26,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H91" t="e">
-        <f>VLOOKUP(B91,$AP$4:$BE$26,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I91" t="e">
-        <f>VLOOKUP(B91,$AP$4:$BE$26,12,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J91" t="e">
-        <f>VLOOKUP(B91,$AP$4:$BE$26,11,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K91" t="e">
-        <f>VLOOKUP(B91,$AP$4:$BE$26,13,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L91" t="e">
-        <f>VLOOKUP(B91,$AP$4:$BE$26,16,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M91" t="e">
-        <f>VLOOKUP(B91,$AP$4:$BE$26,15,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13">
-      <c r="A92" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B92" s="23" t="s">
-        <v>294</v>
-      </c>
       <c r="C92" t="e">
-        <f>VLOOKUP(B92,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="D92" t="e">
-        <f>VLOOKUP(B92,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="34"/>
         <v>#N/A</v>
       </c>
       <c r="E92" t="e">
-        <f>VLOOKUP(B92,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="F92" t="e">
-        <f>VLOOKUP(B92,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
       <c r="G92" t="e">
-        <f>VLOOKUP(B92,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="H92" t="e">
-        <f>VLOOKUP(B92,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="38"/>
         <v>#N/A</v>
       </c>
       <c r="I92" t="e">
-        <f>VLOOKUP(B92,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="39"/>
         <v>#N/A</v>
       </c>
       <c r="J92" t="e">
-        <f>VLOOKUP(B92,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="40"/>
         <v>#N/A</v>
       </c>
       <c r="K92" t="e">
-        <f>VLOOKUP(B92,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="41"/>
         <v>#N/A</v>
       </c>
       <c r="L92" t="e">
-        <f>VLOOKUP(B92,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="42"/>
         <v>#N/A</v>
       </c>
       <c r="M92" t="e">
-        <f>VLOOKUP(B92,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" si="43"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="25.5">
       <c r="A93" s="2" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="B93" s="23" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C93" t="e">
-        <f>VLOOKUP(B93,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="D93" t="e">
-        <f>VLOOKUP(B93,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="34"/>
         <v>#N/A</v>
       </c>
       <c r="E93" t="e">
-        <f>VLOOKUP(B93,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="F93" t="e">
-        <f>VLOOKUP(B93,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
       <c r="G93" t="e">
-        <f>VLOOKUP(B93,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="H93" t="e">
-        <f>VLOOKUP(B93,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="38"/>
         <v>#N/A</v>
       </c>
       <c r="I93" t="e">
-        <f>VLOOKUP(B93,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="39"/>
         <v>#N/A</v>
       </c>
       <c r="J93" t="e">
-        <f>VLOOKUP(B93,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="40"/>
         <v>#N/A</v>
       </c>
       <c r="K93" t="e">
-        <f>VLOOKUP(B93,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="41"/>
         <v>#N/A</v>
       </c>
       <c r="L93" t="e">
-        <f>VLOOKUP(B93,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="42"/>
         <v>#N/A</v>
       </c>
       <c r="M93" t="e">
-        <f>VLOOKUP(B93,$AP$4:$BE$26,15,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" ht="25.5">
+        <f t="shared" si="43"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="2" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="B94" s="23" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="C94" t="e">
-        <f>VLOOKUP(B94,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="D94" t="e">
-        <f>VLOOKUP(B94,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="34"/>
         <v>#N/A</v>
       </c>
       <c r="E94" t="e">
-        <f>VLOOKUP(B94,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="F94" t="e">
-        <f>VLOOKUP(B94,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
       <c r="G94" t="e">
-        <f>VLOOKUP(B94,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="H94" t="e">
-        <f>VLOOKUP(B94,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="38"/>
         <v>#N/A</v>
       </c>
       <c r="I94" t="e">
-        <f>VLOOKUP(B94,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="39"/>
         <v>#N/A</v>
       </c>
       <c r="J94" t="e">
-        <f>VLOOKUP(B94,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="40"/>
         <v>#N/A</v>
       </c>
       <c r="K94" t="e">
-        <f>VLOOKUP(B94,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="41"/>
         <v>#N/A</v>
       </c>
       <c r="L94" t="e">
-        <f>VLOOKUP(B94,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="42"/>
         <v>#N/A</v>
       </c>
       <c r="M94" t="e">
-        <f>VLOOKUP(B94,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" si="43"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -18132,562 +18144,793 @@
         <v>44</v>
       </c>
       <c r="B95" s="23" t="s">
-        <v>356</v>
+        <v>299</v>
       </c>
       <c r="C95" t="e">
-        <f>VLOOKUP(B95,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="D95" t="e">
-        <f>VLOOKUP(B95,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="34"/>
         <v>#N/A</v>
       </c>
       <c r="E95" t="e">
-        <f>VLOOKUP(B95,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="F95" t="e">
-        <f>VLOOKUP(B95,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
       <c r="G95" t="e">
-        <f>VLOOKUP(B95,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="H95" t="e">
-        <f>VLOOKUP(B95,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="38"/>
         <v>#N/A</v>
       </c>
       <c r="I95" t="e">
-        <f>VLOOKUP(B95,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="39"/>
         <v>#N/A</v>
       </c>
       <c r="J95" t="e">
-        <f>VLOOKUP(B95,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="40"/>
         <v>#N/A</v>
       </c>
       <c r="K95" t="e">
-        <f>VLOOKUP(B95,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="41"/>
         <v>#N/A</v>
       </c>
       <c r="L95" t="e">
-        <f>VLOOKUP(B95,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="42"/>
         <v>#N/A</v>
       </c>
       <c r="M95" t="e">
-        <f>VLOOKUP(B95,$AP$4:$BE$26,15,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" ht="25.5">
+        <f t="shared" si="43"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="2" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="B96" s="23" t="s">
-        <v>357</v>
+        <v>294</v>
       </c>
       <c r="C96" t="e">
-        <f>VLOOKUP(B96,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="D96" t="e">
-        <f>VLOOKUP(B96,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="34"/>
         <v>#N/A</v>
       </c>
       <c r="E96" t="e">
-        <f>VLOOKUP(B96,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="F96" t="e">
-        <f>VLOOKUP(B96,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
       <c r="G96" t="e">
-        <f>VLOOKUP(B96,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="H96" t="e">
-        <f>VLOOKUP(B96,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="38"/>
         <v>#N/A</v>
       </c>
       <c r="I96" t="e">
-        <f>VLOOKUP(B96,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="39"/>
         <v>#N/A</v>
       </c>
       <c r="J96" t="e">
-        <f>VLOOKUP(B96,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="40"/>
         <v>#N/A</v>
       </c>
       <c r="K96" t="e">
-        <f>VLOOKUP(B96,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="41"/>
         <v>#N/A</v>
       </c>
       <c r="L96" t="e">
-        <f>VLOOKUP(B96,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="42"/>
         <v>#N/A</v>
       </c>
       <c r="M96" t="e">
-        <f>VLOOKUP(B96,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" si="43"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="97" spans="1:13" ht="25.5">
       <c r="A97" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B97" s="23" t="s">
+        <v>355</v>
+      </c>
+      <c r="C97" t="e">
+        <f t="shared" si="33"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D97" t="e">
+        <f t="shared" si="34"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E97" t="e">
+        <f t="shared" si="35"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F97" t="e">
+        <f t="shared" si="36"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G97" t="e">
+        <f t="shared" si="37"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H97" t="e">
+        <f t="shared" si="38"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I97" t="e">
+        <f t="shared" si="39"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J97" t="e">
+        <f t="shared" si="40"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K97" t="e">
+        <f t="shared" si="41"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L97" t="e">
+        <f t="shared" si="42"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M97" t="e">
+        <f t="shared" si="43"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="25.5">
+      <c r="A98" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B98" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="C98" t="e">
+        <f t="shared" si="33"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D98" t="e">
+        <f t="shared" si="34"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E98" t="e">
+        <f t="shared" si="35"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F98" t="e">
+        <f t="shared" si="36"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G98" t="e">
+        <f t="shared" si="37"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H98" t="e">
+        <f t="shared" si="38"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I98" t="e">
+        <f t="shared" si="39"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J98" t="e">
+        <f t="shared" si="40"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K98" t="e">
+        <f t="shared" si="41"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L98" t="e">
+        <f t="shared" si="42"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M98" t="e">
+        <f t="shared" si="43"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
+      <c r="A99" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B99" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="C99" t="e">
+        <f t="shared" si="33"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D99" t="e">
+        <f t="shared" si="34"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E99" t="e">
+        <f t="shared" si="35"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F99" t="e">
+        <f t="shared" si="36"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G99" t="e">
+        <f t="shared" si="37"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H99" t="e">
+        <f t="shared" si="38"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I99" t="e">
+        <f t="shared" si="39"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J99" t="e">
+        <f t="shared" si="40"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K99" t="e">
+        <f t="shared" si="41"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L99" t="e">
+        <f t="shared" si="42"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M99" t="e">
+        <f t="shared" si="43"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="25.5">
+      <c r="A100" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B97" s="23" t="s">
+      <c r="B100" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="C100" t="e">
+        <f t="shared" si="33"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D100" t="e">
+        <f t="shared" si="34"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E100" t="e">
+        <f t="shared" si="35"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F100" t="e">
+        <f t="shared" si="36"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G100" t="e">
+        <f t="shared" si="37"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H100" t="e">
+        <f t="shared" si="38"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I100" t="e">
+        <f t="shared" si="39"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J100" t="e">
+        <f t="shared" si="40"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K100" t="e">
+        <f t="shared" si="41"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L100" t="e">
+        <f t="shared" si="42"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M100" t="e">
+        <f t="shared" si="43"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="25.5">
+      <c r="A101" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B101" s="23" t="s">
         <v>358</v>
       </c>
-      <c r="C97" t="e">
-        <f>VLOOKUP(B97,$AP$4:$BE$26,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D97" t="e">
-        <f>VLOOKUP(B97,$AP$4:$BE$26,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E97" t="e">
-        <f>VLOOKUP(B97,$AP$4:$BE$26,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F97" t="e">
-        <f>VLOOKUP(B97,$AP$4:$BE$26,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G97" t="e">
-        <f>VLOOKUP(B97,$AP$4:$BE$26,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H97" t="e">
-        <f>VLOOKUP(B97,$AP$4:$BE$26,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I97" t="e">
-        <f>VLOOKUP(B97,$AP$4:$BE$26,12,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J97" t="e">
-        <f>VLOOKUP(B97,$AP$4:$BE$26,11,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K97" t="e">
-        <f>VLOOKUP(B97,$AP$4:$BE$26,13,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L97" t="e">
-        <f>VLOOKUP(B97,$AP$4:$BE$26,16,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M97" t="e">
-        <f>VLOOKUP(B97,$AP$4:$BE$26,15,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13">
-      <c r="A98" s="2" t="s">
+      <c r="C101" t="e">
+        <f t="shared" si="33"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D101" t="e">
+        <f t="shared" si="34"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E101" t="e">
+        <f t="shared" si="35"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F101" t="e">
+        <f t="shared" si="36"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G101" t="e">
+        <f t="shared" si="37"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H101" t="e">
+        <f t="shared" si="38"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I101" t="e">
+        <f t="shared" si="39"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J101" t="e">
+        <f t="shared" si="40"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K101" t="e">
+        <f t="shared" si="41"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L101" t="e">
+        <f t="shared" si="42"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M101" t="e">
+        <f t="shared" si="43"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
+      <c r="A102" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B98" s="23" t="s">
+      <c r="B102" s="23" t="s">
         <v>359</v>
       </c>
-      <c r="C98" t="e">
-        <f>VLOOKUP(B98,$AP$4:$BE$26,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D98" t="e">
-        <f>VLOOKUP(B98,$AP$4:$BE$26,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E98" t="e">
-        <f>VLOOKUP(B98,$AP$4:$BE$26,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F98" t="e">
-        <f>VLOOKUP(B98,$AP$4:$BE$26,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G98" t="e">
-        <f>VLOOKUP(B98,$AP$4:$BE$26,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H98" t="e">
-        <f>VLOOKUP(B98,$AP$4:$BE$26,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I98" t="e">
-        <f>VLOOKUP(B98,$AP$4:$BE$26,12,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J98" t="e">
-        <f>VLOOKUP(B98,$AP$4:$BE$26,11,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K98" t="e">
-        <f>VLOOKUP(B98,$AP$4:$BE$26,13,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L98" t="e">
-        <f>VLOOKUP(B98,$AP$4:$BE$26,16,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M98" t="e">
-        <f>VLOOKUP(B98,$AP$4:$BE$26,15,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13">
-      <c r="A99" s="2"/>
-      <c r="B99" s="23"/>
-    </row>
-    <row r="100" spans="1:13">
-      <c r="A100" s="2"/>
-      <c r="B100" s="23"/>
-    </row>
-    <row r="101" spans="1:13">
-      <c r="A101" s="2"/>
-      <c r="B101" s="23"/>
-    </row>
-    <row r="102" spans="1:13" ht="23.25">
-      <c r="A102" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="B102" s="23"/>
+      <c r="C102" t="e">
+        <f t="shared" si="33"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D102" t="e">
+        <f t="shared" si="34"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E102" t="e">
+        <f t="shared" si="35"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F102" t="e">
+        <f t="shared" si="36"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G102" t="e">
+        <f t="shared" si="37"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H102" t="e">
+        <f t="shared" si="38"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I102" t="e">
+        <f t="shared" si="39"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J102" t="e">
+        <f t="shared" si="40"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K102" t="e">
+        <f t="shared" si="41"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L102" t="e">
+        <f t="shared" si="42"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M102" t="e">
+        <f t="shared" si="43"/>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="103" spans="1:13">
-      <c r="A103" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B103" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C103" t="s">
-        <v>315</v>
-      </c>
-      <c r="D103" t="s">
-        <v>316</v>
-      </c>
-      <c r="E103" t="s">
-        <v>318</v>
-      </c>
-      <c r="F103" t="s">
-        <v>319</v>
-      </c>
-      <c r="G103" t="s">
-        <v>372</v>
-      </c>
-      <c r="H103" t="s">
-        <v>322</v>
-      </c>
-      <c r="I103" t="s">
-        <v>373</v>
-      </c>
-      <c r="J103" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" ht="25.5">
-      <c r="A104" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B104" s="23" t="s">
-        <v>368</v>
-      </c>
-      <c r="C104" t="e">
-        <f>VLOOKUP(B104,$BG$4:$BR$16,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D104" t="e">
-        <f>VLOOKUP(B104,$BG$4:$BR$6,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E104" t="e">
-        <f>VLOOKUP(B104,$BG$4:$BR$6,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F104" t="e">
-        <f>VLOOKUP(B104,$BG$4:$BR$6,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G104" t="e">
-        <f>VLOOKUP(B104,$BG$4:$BR$6,9,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H104" t="e">
-        <f>VLOOKUP(B104,$BG$4:$BR$6,10,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I104" t="e">
-        <f>VLOOKUP(B104,$BG$4:$BR$6,11,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J104" t="e">
-        <f>VLOOKUP(B104,$BG$4:$BR$6,12,FALSE)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="A103" s="2"/>
+      <c r="B103" s="23"/>
+    </row>
+    <row r="104" spans="1:13">
+      <c r="A104" s="2"/>
+      <c r="B104" s="23"/>
     </row>
     <row r="105" spans="1:13">
-      <c r="A105" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B105" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="C105" t="e">
-        <f>VLOOKUP(B105,$BG$4:$BR$6,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D105" t="e">
-        <f>VLOOKUP(B105,$BG$4:$BR$6,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E105" t="e">
-        <f>VLOOKUP(B105,$BG$4:$BR$6,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F105" t="e">
-        <f>VLOOKUP(B105,$BG$4:$BR$6,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G105" t="e">
-        <f>VLOOKUP(B105,$BG$4:$BR$6,9,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H105" t="e">
-        <f>VLOOKUP(B105,$BG$4:$BR$6,10,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I105" t="e">
-        <f>VLOOKUP(B105,$BG$4:$BR$6,11,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J105" t="e">
-        <f>VLOOKUP(B105,$BG$4:$BR$6,12,FALSE)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="A105" s="2"/>
+      <c r="B105" s="24"/>
     </row>
     <row r="106" spans="1:13">
-      <c r="A106" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B106" s="23" t="s">
-        <v>369</v>
-      </c>
-      <c r="C106" t="e">
-        <f>VLOOKUP(B106,$BG$4:$BR$6,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D106" t="e">
-        <f>VLOOKUP(B106,$BG$4:$BR$6,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E106" t="e">
-        <f>VLOOKUP(B106,$BG$4:$BR$6,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F106" t="e">
-        <f>VLOOKUP(B106,$BG$4:$BR$6,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G106" t="e">
-        <f>VLOOKUP(B106,$BG$4:$BR$6,9,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H106" t="e">
-        <f>VLOOKUP(B106,$BG$4:$BR$6,10,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I106" t="e">
-        <f>VLOOKUP(B106,$BG$4:$BR$6,11,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J106" t="e">
-        <f>VLOOKUP(B106,$BG$4:$BR$6,12,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" ht="25.5">
-      <c r="A107" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B107" s="23" t="s">
-        <v>370</v>
-      </c>
-      <c r="C107" t="e">
-        <f>VLOOKUP(B107,$BG$4:$BR$6,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D107" t="e">
-        <f>VLOOKUP(B107,$BG$4:$BR$6,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E107" t="e">
-        <f>VLOOKUP(B107,$BG$4:$BR$6,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F107" t="e">
-        <f>VLOOKUP(B107,$BG$4:$BR$6,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G107" t="e">
-        <f>VLOOKUP(B107,$BG$4:$BR$6,9,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H107" t="e">
-        <f>VLOOKUP(B107,$BG$4:$BR$6,10,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I107" t="e">
-        <f>VLOOKUP(B107,$BG$4:$BR$6,11,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J107" t="e">
-        <f>VLOOKUP(B107,$BG$4:$BR$6,12,FALSE)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="A106" s="2"/>
+      <c r="B106" s="24"/>
+    </row>
+    <row r="107" spans="1:13">
+      <c r="A107" s="2"/>
+      <c r="B107" s="24"/>
     </row>
     <row r="108" spans="1:13">
-      <c r="A108" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B108" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="C108" t="e">
-        <f>VLOOKUP(B108,$BG$4:$BR$6,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D108" t="e">
-        <f>VLOOKUP(B108,$BG$4:$BR$6,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E108" t="e">
-        <f>VLOOKUP(B108,$BG$4:$BR$6,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F108" t="e">
-        <f>VLOOKUP(B108,$BG$4:$BR$6,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G108" t="e">
-        <f>VLOOKUP(B108,$BG$4:$BR$6,9,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H108" t="e">
-        <f>VLOOKUP(B108,$BG$4:$BR$6,10,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I108" t="e">
-        <f>VLOOKUP(B108,$BG$4:$BR$6,11,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J108" t="e">
-        <f>VLOOKUP(B108,$BG$4:$BR$6,12,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" ht="25.5">
-      <c r="A109" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B109" s="23" t="s">
-        <v>325</v>
-      </c>
-      <c r="C109" t="e">
-        <f>VLOOKUP(B109,$BG$4:$BR$6,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D109" t="e">
-        <f>VLOOKUP(B109,$BG$4:$BR$6,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E109" t="e">
-        <f>VLOOKUP(B109,$BG$4:$BR$6,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F109" t="e">
-        <f>VLOOKUP(B109,$BG$4:$BR$6,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G109" t="e">
-        <f>VLOOKUP(B109,$BG$4:$BR$6,9,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H109" t="e">
-        <f>VLOOKUP(B109,$BG$4:$BR$6,10,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I109" t="e">
-        <f>VLOOKUP(B109,$BG$4:$BR$6,11,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J109" t="e">
-        <f>VLOOKUP(B109,$BG$4:$BR$6,12,FALSE)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="A108" s="2"/>
+      <c r="B108" s="24"/>
+    </row>
+    <row r="109" spans="1:13">
+      <c r="A109" s="2"/>
+      <c r="B109" s="24"/>
     </row>
     <row r="110" spans="1:13">
       <c r="A110" s="2"/>
       <c r="B110" s="23"/>
     </row>
-    <row r="111" spans="1:13">
-      <c r="A111" s="2"/>
+    <row r="111" spans="1:13" ht="23.25">
+      <c r="A111" s="19" t="s">
+        <v>313</v>
+      </c>
       <c r="B111" s="23"/>
     </row>
     <row r="112" spans="1:13">
-      <c r="A112" s="2"/>
-      <c r="B112" s="23"/>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="2"/>
-      <c r="B113" s="23"/>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="2"/>
-      <c r="B114" s="23"/>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="2"/>
-      <c r="B115" s="23"/>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" s="2"/>
-      <c r="B116" s="23"/>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="2"/>
-      <c r="B117" s="23"/>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="2"/>
-      <c r="B118" s="23"/>
-    </row>
-    <row r="119" spans="1:2">
+      <c r="A112" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B112" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C112" t="s">
+        <v>315</v>
+      </c>
+      <c r="D112" t="s">
+        <v>316</v>
+      </c>
+      <c r="E112" t="s">
+        <v>318</v>
+      </c>
+      <c r="F112" t="s">
+        <v>319</v>
+      </c>
+      <c r="G112" t="s">
+        <v>372</v>
+      </c>
+      <c r="H112" t="s">
+        <v>322</v>
+      </c>
+      <c r="I112" t="s">
+        <v>373</v>
+      </c>
+      <c r="J112" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="25.5">
+      <c r="A113" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B113" s="23" t="s">
+        <v>368</v>
+      </c>
+      <c r="C113" t="e">
+        <f>VLOOKUP(B113,$BG$4:$BR$15,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D113" t="e">
+        <f t="shared" ref="D113:D118" si="44">VLOOKUP(B113,$BG$4:$BR$6,4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E113" t="e">
+        <f t="shared" ref="E113:E118" si="45">VLOOKUP(B113,$BG$4:$BR$6,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F113" t="e">
+        <f t="shared" ref="F113:F118" si="46">VLOOKUP(B113,$BG$4:$BR$6,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G113" t="e">
+        <f t="shared" ref="G113:G118" si="47">VLOOKUP(B113,$BG$4:$BR$6,9,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H113" t="e">
+        <f t="shared" ref="H113:H118" si="48">VLOOKUP(B113,$BG$4:$BR$6,10,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I113" t="e">
+        <f t="shared" ref="I113:I118" si="49">VLOOKUP(B113,$BG$4:$BR$6,11,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J113" t="e">
+        <f t="shared" ref="J113:J118" si="50">VLOOKUP(B113,$BG$4:$BR$6,12,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B114" s="23" t="s">
+        <v>323</v>
+      </c>
+      <c r="C114" t="e">
+        <f>VLOOKUP(B114,$BG$4:$BR$6,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D114" t="e">
+        <f t="shared" si="44"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E114" t="e">
+        <f t="shared" si="45"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F114" t="e">
+        <f t="shared" si="46"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G114" t="e">
+        <f t="shared" si="47"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H114" t="e">
+        <f t="shared" si="48"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I114" t="e">
+        <f t="shared" si="49"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J114" t="e">
+        <f t="shared" si="50"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B115" s="23" t="s">
+        <v>369</v>
+      </c>
+      <c r="C115" t="e">
+        <f>VLOOKUP(B115,$BG$4:$BR$6,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D115" t="e">
+        <f t="shared" si="44"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E115" t="e">
+        <f t="shared" si="45"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F115" t="e">
+        <f t="shared" si="46"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G115" t="e">
+        <f t="shared" si="47"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H115" t="e">
+        <f t="shared" si="48"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I115" t="e">
+        <f t="shared" si="49"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J115" t="e">
+        <f t="shared" si="50"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="25.5">
+      <c r="A116" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B116" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="C116" t="e">
+        <f>VLOOKUP(B116,$BG$4:$BR$6,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D116" t="e">
+        <f t="shared" si="44"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E116" t="e">
+        <f t="shared" si="45"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F116" t="e">
+        <f t="shared" si="46"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G116" t="e">
+        <f t="shared" si="47"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H116" t="e">
+        <f t="shared" si="48"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I116" t="e">
+        <f t="shared" si="49"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J116" t="e">
+        <f t="shared" si="50"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B117" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="C117" t="e">
+        <f>VLOOKUP(B117,$BG$4:$BR$6,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D117" t="e">
+        <f t="shared" si="44"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E117" t="e">
+        <f t="shared" si="45"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F117" t="e">
+        <f t="shared" si="46"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G117" t="e">
+        <f t="shared" si="47"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H117" t="e">
+        <f t="shared" si="48"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I117" t="e">
+        <f t="shared" si="49"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J117" t="e">
+        <f t="shared" si="50"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="25.5">
+      <c r="A118" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B118" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="C118" t="e">
+        <f>VLOOKUP(B118,$BG$4:$BR$6,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D118" t="e">
+        <f t="shared" si="44"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E118" t="e">
+        <f t="shared" si="45"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F118" t="e">
+        <f t="shared" si="46"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G118" t="e">
+        <f t="shared" si="47"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H118" t="e">
+        <f t="shared" si="48"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I118" t="e">
+        <f t="shared" si="49"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J118" t="e">
+        <f t="shared" si="50"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="2"/>
       <c r="B119" s="23"/>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:10">
       <c r="A120" s="2"/>
       <c r="B120" s="23"/>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:10">
       <c r="A121" s="2"/>
       <c r="B121" s="23"/>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:10">
       <c r="A122" s="2"/>
       <c r="B122" s="23"/>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:10">
       <c r="A123" s="2"/>
       <c r="B123" s="23"/>
     </row>
+    <row r="124" spans="1:10">
+      <c r="A124" s="2"/>
+      <c r="B124" s="23"/>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" s="2"/>
+      <c r="B125" s="23"/>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" s="2"/>
+      <c r="B126" s="23"/>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" s="2"/>
+      <c r="B127" s="23"/>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128" s="2"/>
+      <c r="B128" s="23"/>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="2"/>
+      <c r="B129" s="23"/>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="2"/>
+      <c r="B130" s="23"/>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="2"/>
+      <c r="B131" s="23"/>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="2"/>
+      <c r="B132" s="23"/>
+    </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AJ2"/>
+    <mergeCell ref="AK2:AN2"/>
     <mergeCell ref="BP2:BR2"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="Y11:AB11"/>
     <mergeCell ref="AP2:AQ2"/>
     <mergeCell ref="AR2:AV2"/>
     <mergeCell ref="AW2:BA2"/>
@@ -18697,9 +18940,6 @@
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="Q2:Y2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AJ2"/>
-    <mergeCell ref="AK2:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
